--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail0 Features.xlsx
@@ -4752,7 +4752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4763,29 +4763,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4806,115 +4804,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4931,72 +4919,66 @@
         <v>2.576647106824722e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.783792849541039</v>
+        <v>1.675319362110365e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.78714707212681</v>
+        <v>3.348229598582489e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.675319362110365e-06</v>
+        <v>-0.1082506742818884</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.348229598582489e-07</v>
+        <v>0.3155208779628064</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1082506742818884</v>
+        <v>0.1110074920590614</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3155208779628064</v>
+        <v>1.899480567625952</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1110074920590614</v>
+        <v>4.140470053792677</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.956329773300661</v>
+        <v>9.149682182052153</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.140470053792677</v>
+        <v>9.57327933260316e-20</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>9.149682182052153</v>
+        <v>309761649994.5371</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.57327933260316e-20</v>
+        <v>3.832115664862047e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>309761649994.5371</v>
+        <v>9185.779771957454</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.832115664862047e-10</v>
+        <v>2.071714663693181e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9185.779771957454</v>
+        <v>7.61049075600631</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.071714663693181e-06</v>
+        <v>1.863784811270504</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.61049075600631</v>
+        <v>0.0001199928215458504</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.863784811270504</v>
+        <v>9.103538512001606</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001199928215458504</v>
+        <v>0.9546642138328553</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>9.103538512001606</v>
+        <v>0.6502943997375686</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9546642138328553</v>
+        <v>653</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6502943997375686</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.65950976829343</v>
       </c>
     </row>
@@ -5011,72 +4993,66 @@
         <v>1.878832897569786e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.788735317816498</v>
+        <v>1.222987089390259e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.82471945479613</v>
+        <v>3.109269195235576e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.222987089390259e-06</v>
+        <v>-0.1082797220976659</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.109269195235576e-07</v>
+        <v>0.316133060638209</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1082797220976659</v>
+        <v>0.1113931814654618</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.316133060638209</v>
+        <v>1.894488204729943</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1113931814654618</v>
+        <v>4.158904023179593</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.953039176903263</v>
+        <v>9.204313578056023</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.158904023179593</v>
+        <v>9.459973871039634e-20</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.204313578056023</v>
+        <v>311794083147.413</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.459973871039634e-20</v>
+        <v>3.804935644933314e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>311794083147.413</v>
+        <v>9196.565655618007</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.804935644933314e-10</v>
+        <v>2.054163690882973e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9196.565655618007</v>
+        <v>6.854008275009012</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.054163690882973e-06</v>
+        <v>2.079441301999826</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.854008275009012</v>
+        <v>9.649932983411807e-05</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.079441301999826</v>
+        <v>9.097799945514183</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>9.649932983411807e-05</v>
+        <v>0.9555794896049565</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.097799945514183</v>
+        <v>0.6717439363247015</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9555794896049565</v>
+        <v>646</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6717439363247015</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>646</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.13125094130206</v>
       </c>
     </row>
@@ -5091,72 +5067,66 @@
         <v>1.369182024286185e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.795354603015619</v>
+        <v>8.92460536454047e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>14.87502551885382</v>
+        <v>2.935046792727101e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.92460536454047e-07</v>
+        <v>-0.1082949134403525</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.935046792727101e-07</v>
+        <v>0.3168190674703448</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1082949134403525</v>
+        <v>0.1118295718665896</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3168190674703448</v>
+        <v>1.894054474761771</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1118295718665896</v>
+        <v>4.069444543474114</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.952076176015881</v>
+        <v>9.43613431835541</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.069444543474114</v>
+        <v>9.000870649453373e-20</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.43613431835541</v>
+        <v>325366253553.5636</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.000870649453373e-20</v>
+        <v>3.641661345556127e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>325366253553.5636</v>
+        <v>9528.609602996361</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.641661345556127e-10</v>
+        <v>2.124048973020622e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9528.609602996361</v>
+        <v>6.784915727070967</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.124048973020622e-06</v>
+        <v>1.998084229257723</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.784915727070967</v>
+        <v>9.778076742041021e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.998084229257723</v>
+        <v>9.05514418449169</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>9.778076742041021e-05</v>
+        <v>0.9561004974731274</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>9.05514418449169</v>
+        <v>0.6649567756436267</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9561004974731274</v>
+        <v>664</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6649567756436267</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>664</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>21.2213386351105</v>
       </c>
     </row>
@@ -5171,72 +5141,66 @@
         <v>9.969747822884399e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.804303976431731</v>
+        <v>6.511301142412471e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14.94401080992645</v>
+        <v>2.808105004258752e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.511301142412471e-07</v>
+        <v>-0.1083232848743973</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.808105004258752e-07</v>
+        <v>0.3177993959160061</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1083232848743973</v>
+        <v>0.1124563039744162</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3177993959160061</v>
+        <v>1.883280565177524</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1124563039744162</v>
+        <v>4.039604973472653</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.944317509194663</v>
+        <v>9.343692840999408</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.039604973472653</v>
+        <v>9.179851217652335e-20</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.343692840999408</v>
+        <v>322603627460.2969</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.179851217652335e-20</v>
+        <v>3.667794968954744e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>322603627460.2969</v>
+        <v>9553.755778957624</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.667794968954744e-10</v>
+        <v>2.124831711438263e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9553.755778957624</v>
+        <v>7.320954304096897</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.124831711438263e-06</v>
+        <v>1.85535484652895</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.320954304096897</v>
+        <v>0.0001138832706793389</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.85535484652895</v>
+        <v>9.064938099511274</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001138832706793389</v>
+        <v>0.955467674357116</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>9.064938099511274</v>
+        <v>0.6538461567504738</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.955467674357116</v>
+        <v>659</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6538461567504738</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>659</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>20.53391394940079</v>
       </c>
     </row>
@@ -5251,72 +5215,66 @@
         <v>7.25141986973865e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.816085901187745</v>
+        <v>4.748815801571402e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15.03558330459813</v>
+        <v>2.715690883083632e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.748815801571402e-07</v>
+        <v>-0.1083578862506506</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.715690883083632e-07</v>
+        <v>0.319123511676815</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1083578862506506</v>
+        <v>0.1133048909384089</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.319123511676815</v>
+        <v>1.876170992468068</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1133048909384089</v>
+        <v>3.63560377797006</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.938316555234338</v>
+        <v>9.350059059706634</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.63560377797006</v>
+        <v>9.167354816357065e-20</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.350059059706634</v>
+        <v>321433156981.5218</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.167354816357065e-20</v>
+        <v>3.676086515041448e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>321433156981.5218</v>
+        <v>9471.644478585155</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.676086515041448e-10</v>
+        <v>2.307142218576015e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9471.644478585155</v>
+        <v>7.374302657258814</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.307142218576015e-06</v>
+        <v>1.762436278217921</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.374302657258814</v>
+        <v>0.0001254631775382038</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.762436278217921</v>
+        <v>9.04172530824191</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001254631775382038</v>
+        <v>0.9546453919129227</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.04172530824191</v>
+        <v>0.6537864709171303</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9546453919129227</v>
+        <v>645</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6537864709171303</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>645</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>19.39041275738938</v>
       </c>
     </row>
@@ -5331,72 +5289,66 @@
         <v>5.266469505977216e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.831539156598891</v>
+        <v>3.461799995943209e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>15.15750586835453</v>
+        <v>2.648497645796424e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.461799995943209e-07</v>
+        <v>-0.1083920253708126</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.648497645796424e-07</v>
+        <v>0.3209156649080951</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1083920253708126</v>
+        <v>0.1144563562586754</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3209156649080951</v>
+        <v>1.875763995006809</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1144563562586754</v>
+        <v>4.148762266338109</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.936598190307884</v>
+        <v>9.28766164993098</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.148762266338109</v>
+        <v>9.290946893332242e-20</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>9.28766164993098</v>
+        <v>314432706248.3155</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.290946893332242e-20</v>
+        <v>3.765025990942649e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>314432706248.3155</v>
+        <v>9185.76656968381</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.765025990942649e-10</v>
+        <v>2.916600999711603e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9185.76656968381</v>
+        <v>7.54331085743722</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.916600999711603e-06</v>
+        <v>1.723707649613562</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.54331085743722</v>
+        <v>0.0001659590846340122</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.723707649613562</v>
+        <v>8.950267068273549</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001659590846340122</v>
+        <v>0.9562974395680915</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.950267068273549</v>
+        <v>0.6688594562929977</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9562974395680915</v>
+        <v>638</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6688594562929977</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>638</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>18.40222967451409</v>
       </c>
     </row>
@@ -5411,72 +5363,66 @@
         <v>3.817302378719865e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.851492926294482</v>
+        <v>2.522124738453767e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>15.31865229807716</v>
+        <v>2.599727119798463e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.522124738453767e-07</v>
+        <v>-0.1084191015932627</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.599727119798463e-07</v>
+        <v>0.3233550021052033</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1084191015932627</v>
+        <v>0.1160297570000444</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3233550021052033</v>
+        <v>1.879842487246505</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1160297570000444</v>
+        <v>3.895891397732937</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.937613719092697</v>
+        <v>9.110004879368578</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.895891397732937</v>
+        <v>9.656850983750057e-20</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.110004879368578</v>
+        <v>308843228484.4014</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.656850983750057e-20</v>
+        <v>3.845693494485884e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>308843228484.4014</v>
+        <v>9211.104240750983</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.845693494485884e-10</v>
+        <v>4.081794326465104e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9211.104240750983</v>
+        <v>8.100870315338714</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4.081794326465104e-06</v>
+        <v>1.648333238959037</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.100870315338714</v>
+        <v>0.0002678640785121567</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.648333238959037</v>
+        <v>8.824731027088141</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0002678640785121567</v>
+        <v>0.9561064539998426</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.824731027088141</v>
+        <v>0.6854921856131533</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9561064539998426</v>
+        <v>626</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6854921856131533</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>626</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>17.78705497903826</v>
       </c>
     </row>
@@ -5491,72 +5437,66 @@
         <v>2.759624959106105e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.876519544248878</v>
+        <v>1.836168502117832e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>15.52844436467354</v>
+        <v>2.564411898367464e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.836168502117832e-07</v>
+        <v>-0.1084310846801489</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.564411898367464e-07</v>
+        <v>0.3266818802425635</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.1084310846801489</v>
+        <v>0.1181893988912749</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3266818802425635</v>
+        <v>1.883427271435377</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1181893988912749</v>
+        <v>3.808682360615955</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.939635028310529</v>
+        <v>9.186887954869254</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.808682360615955</v>
+        <v>9.495895127539639e-20</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.186887954869254</v>
+        <v>311449885489.9755</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.495895127539639e-20</v>
+        <v>3.807650590744056e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>311449885489.9755</v>
+        <v>9211.116192698455</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.807650590744056e-10</v>
+        <v>5.000709769312551e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>9211.116192698455</v>
+        <v>8.698823539730276</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5.000709769312551e-06</v>
+        <v>1.586266552495232</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.698823539730276</v>
+        <v>0.0003784013627878092</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.586266552495232</v>
+        <v>8.768621285951641</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0003784013627878092</v>
+        <v>0.95714417674403</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.768621285951641</v>
+        <v>0.6905554664867851</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.95714417674403</v>
+        <v>629</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6905554664867851</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>17.90177035086245</v>
       </c>
     </row>
@@ -5571,72 +5511,66 @@
         <v>1.988106755568878e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.906190236911836</v>
+        <v>1.335525751916476e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>15.79350181620114</v>
+        <v>2.538923041630505e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.335525751916476e-07</v>
+        <v>-0.10839841380928</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.538923041630505e-07</v>
+        <v>0.331218423906406</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.10839841380928</v>
+        <v>0.1211593102340174</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.331218423906406</v>
+        <v>1.882866792918453</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1211593102340174</v>
+        <v>3.556216070204779</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.941210973520505</v>
+        <v>9.059377527357238</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.556216070204779</v>
+        <v>8.389748184809439e-20</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.059377527357238</v>
+        <v>326143037693.5639</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>8.389748184809439e-20</v>
+        <v>3.620971423938384e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>326143037693.5639</v>
+        <v>8924.114824911441</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.620971423938384e-10</v>
+        <v>5.356696617747742e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8924.114824911441</v>
+        <v>8.551539127644185</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>5.356696617747742e-06</v>
+        <v>1.565267972236591</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.551539127644185</v>
+        <v>0.000391728910529822</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.565267972236591</v>
+        <v>8.755329477913603</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.000391728910529822</v>
+        <v>0.9572341555195031</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.755329477913603</v>
+        <v>0.6939651760893674</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9572341555195031</v>
+        <v>624</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6939651760893674</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>624</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>17.98198659420251</v>
       </c>
     </row>
@@ -5651,72 +5585,66 @@
         <v>1.425923728703647e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3.937258188826434</v>
+        <v>9.701952889905145e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>16.10825224839795</v>
+        <v>2.520611333480313e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.701952889905145e-08</v>
+        <v>-0.1082434015610903</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.520611333480313e-07</v>
+        <v>0.3373622280875461</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.1082434015610903</v>
+        <v>0.1252229660296204</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3373622280875461</v>
+        <v>1.8947630945261</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1252229660296204</v>
+        <v>3.536799761538646</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.950071906133253</v>
+        <v>9.241916058177743</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.536799761538646</v>
+        <v>8.061606634738841e-20</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.241916058177743</v>
+        <v>334707037490.9504</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.061606634738841e-20</v>
+        <v>3.53890211898863e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>334707037490.9504</v>
+        <v>9031.321249878562</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.53890211898863e-10</v>
+        <v>5.376261300567679e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9031.321249878562</v>
+        <v>7.939833106397953</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>5.376261300567679e-06</v>
+        <v>1.596397342922435</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.939833106397953</v>
+        <v>0.0003389246185320258</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.596397342922435</v>
+        <v>8.727016556159597</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0003389246185320258</v>
+        <v>0.9578135122134268</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.727016556159597</v>
+        <v>0.7064517499523004</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9578135122134268</v>
+        <v>656</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7064517499523004</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>656</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>17.79973453059655</v>
       </c>
     </row>
@@ -5731,72 +5659,66 @@
         <v>1.017154838834468e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3.959422981245045</v>
+        <v>7.03687587869995e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>16.43216409541979</v>
+        <v>2.507543421937147e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.03687587869995e-08</v>
+        <v>-0.1078032780671315</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.507543421937147e-07</v>
+        <v>0.3455892655919052</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.1078032780671315</v>
+        <v>0.130732502252406</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3455892655919052</v>
+        <v>1.89984471025016</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.130732502252406</v>
+        <v>3.503819364817805</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.954718100616067</v>
+        <v>9.275077966962716</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.503819364817805</v>
+        <v>8.004063108491014e-20</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.275077966962716</v>
+        <v>336037046821.1708</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>8.004063108491014e-20</v>
+        <v>3.519848595444197e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>336037046821.1708</v>
+        <v>9038.259845450983</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.519848595444197e-10</v>
+        <v>5.607678515817331e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9038.259845450983</v>
+        <v>7.782609316438148</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.607678515817331e-06</v>
+        <v>1.625795708498031</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.782609316438148</v>
+        <v>0.000339651523609155</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.625795708498031</v>
+        <v>8.677405658210175</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.000339651523609155</v>
+        <v>0.956948101284562</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.677405658210175</v>
+        <v>0.6604937239314275</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.956948101284562</v>
+        <v>650</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6604937239314275</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>650</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>17.68927589962864</v>
       </c>
     </row>
@@ -5811,72 +5733,66 @@
         <v>7.21245467176787e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3.945253383510234</v>
+        <v>5.093296051009858e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>16.63107437220605</v>
+        <v>2.498307761284157e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.093296051009858e-08</v>
+        <v>-0.1067473662220441</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.498307761284157e-07</v>
+        <v>0.3562714826612048</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.1067473662220441</v>
+        <v>0.1379848356868276</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3562714826612048</v>
+        <v>1.89859258170137</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1379848356868276</v>
+        <v>3.945810877427073</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.948969762125513</v>
+        <v>9.385848676962382</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.945810877427073</v>
+        <v>7.816251880117531e-20</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.385848676962382</v>
+        <v>338815483276.825</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.816251880117531e-20</v>
+        <v>3.498318116327094e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>338815483276.825</v>
+        <v>8972.739170433464</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.498318116327094e-10</v>
+        <v>5.952922497374461e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8972.739170433464</v>
+        <v>7.97071105993883</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.952922497374461e-06</v>
+        <v>1.670587419777331</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.97071105993883</v>
+        <v>0.0003782024698555352</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.670587419777331</v>
+        <v>8.66135979094979</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0003782024698555352</v>
+        <v>0.957533533303587</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.66135979094979</v>
+        <v>0.6848466330418841</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.957533533303587</v>
+        <v>649</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6848466330418841</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>649</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>17.77595436993097</v>
       </c>
     </row>
@@ -5891,72 +5807,66 @@
         <v>5.090446751455769e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3.828912169733965</v>
+        <v>3.676746288397484e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>16.35238857189071</v>
+        <v>2.491872166146466e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.676746288397484e-08</v>
+        <v>-0.1043935723797771</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.491872166146466e-07</v>
+        <v>0.3692371050867775</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.1043935723797771</v>
+        <v>0.1468722693453072</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3692371050867775</v>
+        <v>1.900898418916917</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.1468722693453072</v>
+        <v>4.253589635384314</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.949863654004761</v>
+        <v>9.061075216182831</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.253589635384314</v>
+        <v>8.38660466219269e-20</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>9.061075216182831</v>
+        <v>316189356708.0334</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>8.38660466219269e-20</v>
+        <v>3.74996135468259e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>316189356708.0334</v>
+        <v>8384.567496831583</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.74996135468259e-10</v>
+        <v>6.030870165228885e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8384.567496831583</v>
+        <v>8.881119985687112</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>6.030870165228885e-06</v>
+        <v>1.635502029566803</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.881119985687112</v>
+        <v>0.000475680615633557</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.635502029566803</v>
+        <v>8.681441327088258</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.000475680615633557</v>
+        <v>0.9579215342313132</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.681441327088258</v>
+        <v>0.6910986791552408</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9579215342313132</v>
+        <v>635</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6910986791552408</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>635</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>18.27501308207426</v>
       </c>
     </row>
@@ -5971,72 +5881,66 @@
         <v>3.598773075792526e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3.470243903358769</v>
+        <v>2.645419847979113e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>14.80992049645474</v>
+        <v>2.487478912854992e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.645419847979113e-08</v>
+        <v>-0.09937231396641878</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.487478912854992e-07</v>
+        <v>0.3825657530186303</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.09937231396641878</v>
+        <v>0.1558475941428795</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3825657530186303</v>
+        <v>1.902945215397437</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.1558475941428795</v>
+        <v>3.985164528897956</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.951182866855313</v>
+        <v>8.845888697214386</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.985164528897956</v>
+        <v>8.799595339865026e-20</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.845888697214386</v>
+        <v>300581018567.7485</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.799595339865026e-20</v>
+        <v>3.944655195617036e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>300581018567.7485</v>
+        <v>7950.341881465964</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.944655195617036e-10</v>
+        <v>5.851099661280322e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7950.341881465964</v>
+        <v>9.017987646901149</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>5.851099661280322e-06</v>
+        <v>1.575485746402276</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.017987646901149</v>
+        <v>0.0004758354209832674</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.575485746402276</v>
+        <v>8.696828350699118</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0004758354209832674</v>
+        <v>0.9582487568635198</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.696828350699118</v>
+        <v>0.6767699262000765</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9582487568635198</v>
+        <v>615</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6767699262000765</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>615</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>18.47754362083273</v>
       </c>
     </row>
@@ -6051,72 +5955,66 @@
         <v>2.59492552089972e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.657871826507523</v>
+        <v>1.894297673447522e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10.86414691976044</v>
+        <v>2.484573766964106e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.894297673447522e-08</v>
+        <v>-0.08899745824183625</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.484573766964106e-07</v>
+        <v>0.3891442170121379</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.08899745824183625</v>
+        <v>0.1589613299015558</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3891442170121379</v>
+        <v>1.896678164319449</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.1589613299015558</v>
+        <v>3.766125589908507</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.948523067776708</v>
+        <v>8.548296030189949</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.766125589908507</v>
+        <v>9.422942374195001e-20</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.548296030189949</v>
+        <v>289695257345.5138</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.422942374195001e-20</v>
+        <v>4.09868962101026e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>289695257345.5138</v>
+        <v>7908.048167265511</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.09868962101026e-10</v>
+        <v>5.854289244802775e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>7908.048167265511</v>
+        <v>8.376120132222603</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>5.854289244802775e-06</v>
+        <v>1.443299708291108</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.376120132222603</v>
+        <v>0.0004107333533384934</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.443299708291108</v>
+        <v>8.660448423094438</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0004107333533384934</v>
+        <v>0.9618138231026745</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.660448423094438</v>
+        <v>0.6845681024621917</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9618138231026745</v>
+        <v>605</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6845681024621917</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>605</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>18.11228659046563</v>
       </c>
     </row>
@@ -6131,72 +6029,66 @@
         <v>1.980327902066121e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.374756072785458</v>
+        <v>1.346960572961695e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4.823055171706529</v>
+        <v>2.482754708512123e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.346960572961695e-08</v>
+        <v>-0.06985874472736531</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.482754708512123e-07</v>
+        <v>0.3742429606758116</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06985874472736531</v>
+        <v>0.1445806291731999</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3742429606758116</v>
+        <v>1.898062208949869</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1445806291731999</v>
+        <v>3.622239390133825</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.949273825721882</v>
+        <v>8.480681685657114</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.622239390133825</v>
+        <v>9.036191553367112e-20</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.480681685657114</v>
+        <v>298488303736.7594</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.036191553367112e-20</v>
+        <v>3.982162150303259e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>298488303736.7594</v>
+        <v>8050.819033361438</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.982162150303259e-10</v>
+        <v>6.460065022766652e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8050.819033361438</v>
+        <v>8.521413530081956</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>6.460065022766652e-06</v>
+        <v>1.329353284026464</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.521413530081956</v>
+        <v>0.0004690943176322329</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.329353284026464</v>
+        <v>8.575143255067312</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0004690943176322329</v>
+        <v>0.9628408047566469</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.575143255067312</v>
+        <v>0.7109758722235796</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9628408047566469</v>
+        <v>622</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7109758722235796</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>622</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>17.7076786349007</v>
       </c>
     </row>
@@ -6211,72 +6103,66 @@
         <v>1.668346953822719e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2296889190931552</v>
+        <v>9.487634655025515e-09</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.331520374935423</v>
+        <v>2.481730247506054e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.487634655025515e-09</v>
+        <v>-0.04228839440904911</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.481730247506054e-07</v>
+        <v>0.3263133463413607</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04228839440904911</v>
+        <v>0.1080021285239509</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3263133463413607</v>
+        <v>1.905335399107732</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.1080021285239509</v>
+        <v>4.104166889924942</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.953250961369482</v>
+        <v>8.417966636318845</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>4.104166889924942</v>
+        <v>9.171334929638948e-20</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.417966636318845</v>
+        <v>307495501156.4203</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.171334929638948e-20</v>
+        <v>3.880663639559281e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>307495501156.4203</v>
+        <v>8671.816634795186</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.880663639559281e-10</v>
+        <v>7.093082349186018e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8671.816634795186</v>
+        <v>8.243939750798198</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>7.093082349186018e-06</v>
+        <v>1.34417541514007</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.243939750798198</v>
+        <v>0.0004820639114267742</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.34417541514007</v>
+        <v>8.544829607474208</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0004820639114267742</v>
+        <v>0.9632779015089453</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.544829607474208</v>
+        <v>0.6812584803592741</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9632779015089453</v>
+        <v>638</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6812584803592741</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>638</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>17.66860399794755</v>
       </c>
     </row>
@@ -6291,72 +6177,66 @@
         <v>1.558869588410799e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2153757902621728</v>
+        <v>6.594422705233975e-09</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8634392389579619</v>
+        <v>2.481287367378676e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.594422705233975e-09</v>
+        <v>-0.01344064742578396</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.481287367378676e-07</v>
+        <v>0.2565650953537027</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.01344064742578396</v>
+        <v>0.0658454078944766</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2565650953537027</v>
+        <v>1.904597326535023</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0658454078944766</v>
+        <v>4.000430887044021</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.94969299418895</v>
+        <v>8.352136712203029</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>4.000430887044021</v>
+        <v>9.316478050942121e-20</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.352136712203029</v>
+        <v>307486950302.3664</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.316478050942121e-20</v>
+        <v>3.879499851944511e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>307486950302.3664</v>
+        <v>8808.564592996732</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.879499851944511e-10</v>
+        <v>7.530198148416674e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8808.564592996732</v>
+        <v>7.779270090135676</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>7.530198148416674e-06</v>
+        <v>1.470021794026548</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.779270090135676</v>
+        <v>0.000455705326164934</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.470021794026548</v>
+        <v>8.54749384145919</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.000455705326164934</v>
+        <v>0.9634929407646942</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.54749384145919</v>
+        <v>0.6598300108048188</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9634929407646942</v>
+        <v>641</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6598300108048188</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>17.96795391288043</v>
       </c>
     </row>
@@ -6371,72 +6251,66 @@
         <v>1.553639489210568e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2381113658265031</v>
+        <v>5.417948303074396e-09</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9085349947704167</v>
+        <v>2.481269592126895e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.417948303074396e-09</v>
+        <v>0.009796626394074909</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.481269592126895e-07</v>
+        <v>0.188952310795938</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.009796626394074909</v>
+        <v>0.03571407718116857</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.188952310795938</v>
+        <v>1.908671698837837</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03571407718116857</v>
+        <v>3.876777250930169</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.950851941273989</v>
+        <v>8.373101585347603</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.876777250930169</v>
+        <v>8.99901869212961e-20</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.373101585347603</v>
+        <v>309976464272.4287</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.99901869212961e-20</v>
+        <v>3.855597790092595e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>309976464272.4287</v>
+        <v>8646.743862580312</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.855597790092595e-10</v>
+        <v>6.534478614315301e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8646.743862580312</v>
+        <v>8.347911228461841</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>6.534478614315301e-06</v>
+        <v>1.484397810544251</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.347911228461841</v>
+        <v>0.0004553722748461071</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.484397810544251</v>
+        <v>8.629055937227458</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0004553722748461071</v>
+        <v>0.9643850399097003</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.629055937227458</v>
+        <v>0.6894110038183642</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9643850399097003</v>
+        <v>636</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.6894110038183642</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>18.73821733268971</v>
       </c>
     </row>
@@ -6451,72 +6325,66 @@
         <v>1.585708756996854e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2045768859097114</v>
+        <v>5.478014711825858e-09</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.9297478949490516</v>
+        <v>2.481560768257842e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.478014711825858e-09</v>
+        <v>0.02609490634575949</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.481560768257842e-07</v>
+        <v>0.1358657547190481</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.02609490634575949</v>
+        <v>0.01909897471165542</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1358657547190481</v>
+        <v>1.91114526801126</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01909897471165542</v>
+        <v>4.115129148704779</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.953992325533858</v>
+        <v>8.371847206126487</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>4.115129148704779</v>
+        <v>9.001715594605529e-20</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.371847206126487</v>
+        <v>311527205465.9764</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>9.001715594605529e-20</v>
+        <v>3.841672511551062e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>311527205465.9764</v>
+        <v>8736.092947925201</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.841672511551062e-10</v>
+        <v>6.211673019619975e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8736.092947925201</v>
+        <v>9.285684764176709</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>6.211673019619975e-06</v>
+        <v>1.348293575467735</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.285684764176709</v>
+        <v>0.0005355949313072177</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.348293575467735</v>
+        <v>8.63209284263213</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0005355949313072177</v>
+        <v>0.9658415321685005</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.63209284263213</v>
+        <v>0.6487627006314457</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9658415321685005</v>
+        <v>636</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6487627006314457</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>18.9087466924742</v>
       </c>
     </row>
@@ -6531,72 +6399,66 @@
         <v>1.621586245881698e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2085310681885706</v>
+        <v>5.533403918745807e-09</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9583798715241816</v>
+        <v>2.482074554726629e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.533403918745807e-09</v>
+        <v>0.03712602711354153</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.482074554726629e-07</v>
+        <v>0.09776521339606774</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03712602711354153</v>
+        <v>0.01091658998197938</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09776521339606774</v>
+        <v>1.913475833515676</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01091658998197938</v>
+        <v>4.181740791175305</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.953115077064186</v>
+        <v>9.244715238192811</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.181740791175305</v>
+        <v>8.371938241470859e-20</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9.244715238192811</v>
+        <v>331610223363.2234</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.371938241470859e-20</v>
+        <v>3.607774710532983e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>331610223363.2234</v>
+        <v>9206.230371832964</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.607774710532983e-10</v>
+        <v>6.511744781759537e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9206.230371832964</v>
+        <v>9.780450696403772</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>6.511744781759537e-06</v>
+        <v>1.291191985391337</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.780450696403772</v>
+        <v>0.0006228953759846898</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.291191985391337</v>
+        <v>8.579441210550989</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0006228953759846898</v>
+        <v>0.9661163985920043</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.579441210550989</v>
+        <v>0.6467933626045512</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9661163985920043</v>
+        <v>643</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.6467933626045512</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>643</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>18.6744016216139</v>
       </c>
     </row>
@@ -6611,72 +6473,66 @@
         <v>1.648202841238549e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2378913860421717</v>
+        <v>5.590292628644229e-09</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9453196197181777</v>
+        <v>2.482748712513078e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.590292628644229e-09</v>
+        <v>0.0447524925876216</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.482748712513078e-07</v>
+        <v>0.07107661782960494</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.0447524925876216</v>
+        <v>0.007045499092788432</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.07107661782960494</v>
+        <v>1.911778573688199</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.007045499092788432</v>
+        <v>4.073953677546857</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.953392275100505</v>
+        <v>9.458426557641767</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.073953677546857</v>
+        <v>7.997887675658488e-20</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.458426557641767</v>
+        <v>338349348646.326</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.997887675658488e-20</v>
+        <v>3.528478641616479e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>338349348646.326</v>
+        <v>9156.004343494245</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.528478641616479e-10</v>
+        <v>6.437349533168911e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9156.004343494245</v>
+        <v>9.120112089173988</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>6.437349533168911e-06</v>
+        <v>1.325614445439198</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.120112089173988</v>
+        <v>0.0005354358462956624</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.325614445439198</v>
+        <v>8.589993863351697</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0005354358462956624</v>
+        <v>0.9661159246527313</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.589993863351697</v>
+        <v>0.6658445576523307</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9661159246527313</v>
+        <v>653</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6658445576523307</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>18.5510352373628</v>
       </c>
     </row>
@@ -6691,72 +6547,66 @@
         <v>1.661912555954377e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2721724246895351</v>
+        <v>5.647449823602969e-09</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.897480642597607</v>
+        <v>2.483537966600762e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.647449823602969e-09</v>
+        <v>0.05020198234656582</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.483537966600762e-07</v>
+        <v>0.05258607920681564</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05020198234656582</v>
+        <v>0.005281625759420954</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.05258607920681564</v>
+        <v>1.90864384312069</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005281625759420954</v>
+        <v>3.579347781269641</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.946284644234926</v>
+        <v>9.461819611208934</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.579347781269641</v>
+        <v>7.992152542957376e-20</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>9.461819611208934</v>
+        <v>337916738710.2496</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.992152542957376e-20</v>
+        <v>3.535795000222545e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>337916738710.2496</v>
+        <v>9126.056951590201</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.535795000222545e-10</v>
+        <v>6.344654090549387e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9126.056951590201</v>
+        <v>8.338192454880296</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.344654090549387e-06</v>
+        <v>1.426896401129614</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.338192454880296</v>
+        <v>0.0004411149524043867</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.426896401129614</v>
+        <v>8.618766806459353</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0004411149524043867</v>
+        <v>0.9665983816101358</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>8.618766806459353</v>
+        <v>0.6440970565592593</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9665983816101358</v>
+        <v>658</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6440970565592593</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>18.55368482278761</v>
       </c>
     </row>
@@ -6771,72 +6621,66 @@
         <v>1.663062864323392e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2994212181679735</v>
+        <v>5.705865059230524e-09</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.8372729284832459</v>
+        <v>2.484407734907913e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.705865059230524e-09</v>
+        <v>0.05411442610769174</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.484407734907913e-07</v>
+        <v>0.0409613936998813</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05411442610769174</v>
+        <v>0.004605016722907745</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.0409613936998813</v>
+        <v>1.911222338126426</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004605016722907745</v>
+        <v>3.548001311850283</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.947662135735902</v>
+        <v>9.426198720671591</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.548001311850283</v>
+        <v>8.052670150480213e-20</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>9.426198720671591</v>
+        <v>339432653041.7562</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>8.052670150480213e-20</v>
+        <v>3.527143763223955e-10</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>339432653041.7562</v>
+        <v>9277.845740270655</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.527143763223955e-10</v>
+        <v>5.506396477383261e-06</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>9277.845740270655</v>
+        <v>8.462525801593516</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>5.506396477383261e-06</v>
+        <v>1.484330537938007</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.462525801593516</v>
+        <v>0.0003943369657094476</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.484330537938007</v>
+        <v>8.688149404030542</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0003943369657094476</v>
+        <v>0.9680495111565486</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>8.688149404030542</v>
+        <v>0.6336496710436796</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9680495111565486</v>
+        <v>670</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.6336496710436796</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>670</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>19.06474417500334</v>
       </c>
     </row>
@@ -6851,72 +6695,66 @@
         <v>1.653765073226538e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3147788507588321</v>
+        <v>5.764854029841075e-09</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.7826947881979418</v>
+        <v>2.485330347848787e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.764854029841075e-09</v>
+        <v>0.05694065611418581</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.485330347848787e-07</v>
+        <v>0.03474626022881906</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05694065611418581</v>
+        <v>0.004449416799259071</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.03474626022881906</v>
+        <v>1.901469100286815</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004449416799259071</v>
+        <v>3.932415199118982</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.941487257040785</v>
+        <v>9.416727162526982</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.932415199118982</v>
+        <v>8.06887741441655e-20</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>9.416727162526982</v>
+        <v>339664198680.7492</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>8.06887741441655e-20</v>
+        <v>3.51867532763628e-10</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>339664198680.7492</v>
+        <v>9309.206519907213</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.51867532763628e-10</v>
+        <v>4.35477641205732e-06</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>9309.206519907213</v>
+        <v>8.889938306047798</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>4.35477641205732e-06</v>
+        <v>1.484757253560931</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.889938306047798</v>
+        <v>0.0003441623480572505</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.484757253560931</v>
+        <v>8.785249261736682</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0003441623480572505</v>
+        <v>0.9670783972110735</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>8.785249261736682</v>
+        <v>0.6621075296533301</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9670783972110735</v>
+        <v>644</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.6621075296533301</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>644</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>19.9351609586641</v>
       </c>
     </row>
@@ -6931,72 +6769,66 @@
         <v>1.636339982877809e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.3165745354962903</v>
+        <v>5.83353695898006e-09</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7447981194991686</v>
+        <v>2.486286751504169e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.83353695898006e-09</v>
+        <v>0.05921384328200707</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.486286751504169e-07</v>
+        <v>0.03175356224694822</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05921384328200707</v>
+        <v>0.004514812417612465</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.03175356224694822</v>
+        <v>1.903156578532489</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.004514812417612465</v>
+        <v>4.032339153902553</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.945449040478967</v>
+        <v>9.455456406014569</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>4.032339153902553</v>
+        <v>8.002913063969564e-20</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>9.455456406014569</v>
+        <v>341039125760.302</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>8.002913063969564e-20</v>
+        <v>3.499585558852547e-10</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>341039125760.302</v>
+        <v>9308.002941222376</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.499585558852547e-10</v>
+        <v>3.197851822069661e-06</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>9308.002941222376</v>
+        <v>8.381162184076997</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>3.197851822069661e-06</v>
+        <v>1.570310535308</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.381162184076997</v>
+        <v>0.0002246295182267642</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.570310535308</v>
+        <v>8.906566843071793</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.0002246295182267642</v>
+        <v>0.9666028310597866</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>8.906566843071793</v>
+        <v>0.6417266933119247</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9666028310597866</v>
+        <v>649</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.6417266933119247</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>649</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>20.90973840197437</v>
       </c>
     </row>
@@ -7011,72 +6843,66 @@
         <v>1.613160741989195e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.3037739137055564</v>
+        <v>5.920518865688599e-09</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.73029325840072</v>
+        <v>2.487265280574646e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.920518865688599e-09</v>
+        <v>0.06116565295643484</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.487265280574646e-07</v>
+        <v>0.03083585079127481</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.06116565295643484</v>
+        <v>0.00469232435921212</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.03083585079127481</v>
+        <v>1.904800170258165</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.00469232435921212</v>
+        <v>3.805794556123627</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.94765889375667</v>
+        <v>9.155128048391035</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.805794556123627</v>
+        <v>8.536586525133758e-20</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.155128048391035</v>
+        <v>322298491423.9342</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>8.536586525133758e-20</v>
+        <v>3.709499255075167e-10</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>322298491423.9342</v>
+        <v>8867.491728839506</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.709499255075167e-10</v>
+        <v>2.597939828855949e-06</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8867.491728839506</v>
+        <v>6.988328212710496</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>2.597939828855949e-06</v>
+        <v>1.885658940122134</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.988328212710496</v>
+        <v>0.0001268748891178646</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.885658940122134</v>
+        <v>8.990628594284736</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0001268748891178646</v>
+        <v>0.9664343687865566</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>8.990628594284736</v>
+        <v>0.6259699681325879</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9664343687865566</v>
+        <v>632</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.6259699681325879</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>632</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>21.74186198922664</v>
       </c>
     </row>
@@ -7091,72 +6917,66 @@
         <v>1.586696137157653e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.2763993673441499</v>
+        <v>5.973090906715874e-09</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7419646088012146</v>
+        <v>2.488257231273211e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.973090906715874e-09</v>
+        <v>0.06274041441014001</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.488257231273211e-07</v>
+        <v>0.03103665779608615</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.06274041441014001</v>
+        <v>0.004899740660702753</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.03103665779608615</v>
+        <v>1.911776179301204</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.004899740660702753</v>
+        <v>3.940230173947538</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.950570607133657</v>
+        <v>9.08228042915367</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.940230173947538</v>
+        <v>8.674077097684374e-20</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.08228042915367</v>
+        <v>331103074821.379</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>8.674077097684374e-20</v>
+        <v>3.62941873590666e-10</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>331103074821.379</v>
+        <v>9509.325333196519</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.62941873590666e-10</v>
+        <v>2.787625728181502e-06</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>9509.325333196519</v>
+        <v>6.731350597806144</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>2.787625728181502e-06</v>
+        <v>1.912609029142422</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>6.731350597806144</v>
+        <v>0.0001263103348065558</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.912609029142422</v>
+        <v>8.968076313483307</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0001263103348065558</v>
+        <v>0.9661710924521217</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>8.968076313483307</v>
+        <v>0.645742864497153</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9661710924521217</v>
+        <v>651</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.645742864497153</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>651</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>22.00568656712289</v>
       </c>
     </row>
@@ -7171,72 +6991,66 @@
         <v>1.558850291182798e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2363934975178686</v>
+        <v>5.973284583281811e-09</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.7795097130950279</v>
+        <v>2.489253462480412e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.973284583281811e-09</v>
+        <v>0.06386494729102528</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.489253462480412e-07</v>
+        <v>0.03157185988275292</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.06386494729102528</v>
+        <v>0.005075406480509922</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.03157185988275292</v>
+        <v>1.915843656415235</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005075406480509922</v>
+        <v>3.781777171565146</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.953289978551783</v>
+        <v>9.273904510350597</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.781777171565146</v>
+        <v>8.31932044504329e-20</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.273904510350597</v>
+        <v>345320816670.6194</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>8.31932044504329e-20</v>
+        <v>3.486513029082472e-10</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>345320816670.6194</v>
+        <v>9920.495661375189</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.486513029082472e-10</v>
+        <v>3.495523621913236e-06</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>9920.495661375189</v>
+        <v>7.490324568844505</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>3.495523621913236e-06</v>
+        <v>1.685875578341618</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.490324568844505</v>
+        <v>0.0001961162204901127</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.685875578341618</v>
+        <v>8.886176505111552</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0001961162204901127</v>
+        <v>0.9661227495847549</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>8.886176505111552</v>
+        <v>0.6480426996320716</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9661227495847549</v>
+        <v>685</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.6480426996320716</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>21.11222056111368</v>
       </c>
     </row>
@@ -7251,72 +7065,66 @@
         <v>1.53117032318494e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.1868911285494024</v>
+        <v>5.926875911888719e-09</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.8397275333323231</v>
+        <v>2.490245767082594e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.926875911888719e-09</v>
+        <v>0.06451576956034359</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.490245767082594e-07</v>
+        <v>0.03194266055417258</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.06451576956034359</v>
+        <v>0.005182222347696329</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.03194266055417258</v>
+        <v>1.922356493254564</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.005182222347696329</v>
+        <v>4.603615051027888</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.955924577979171</v>
+        <v>8.147671184263279</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>4.603615051027888</v>
+        <v>7.828036146492457e-20</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>8.147671184263279</v>
+        <v>359327627045.7761</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>7.828036146492457e-20</v>
+        <v>3.355011214579049e-10</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>359327627045.7761</v>
+        <v>10107.27404477689</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.355011214579049e-10</v>
+        <v>4.087222316682142e-06</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>10107.27404477689</v>
+        <v>7.911408762628255</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>4.087222316682142e-06</v>
+        <v>1.605825744814066</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.911408762628255</v>
+        <v>0.0002558208331341112</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.605825744814066</v>
+        <v>8.806609096137551</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.0002558208331341112</v>
+        <v>0.9653160658813285</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>8.806609096137551</v>
+        <v>0.6275232324690869</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9653160658813285</v>
+        <v>698</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.6275232324690869</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>698</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>20.27828103961866</v>
       </c>
     </row>
@@ -7331,72 +7139,66 @@
         <v>1.505058842846392e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.1326331675240945</v>
+        <v>5.828164519896333e-09</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.915618082267446</v>
+        <v>2.491226005986186e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.828164519896333e-09</v>
+        <v>0.06454365404321175</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.491226005986186e-07</v>
+        <v>0.03168265414203774</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.06454365404321175</v>
+        <v>0.005168828431974626</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.03168265414203774</v>
+        <v>1.92381164076481</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.005168828431974626</v>
+        <v>4.268784488714479</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.957414417853933</v>
+        <v>8.106240038381028</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>4.268784488714479</v>
+        <v>7.908259115552842e-20</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>8.106240038381028</v>
+        <v>358597133010.8472</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>7.908259115552842e-20</v>
+        <v>3.366410472588499e-10</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>358597133010.8472</v>
+        <v>10169.38095441108</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.366410472588499e-10</v>
+        <v>3.966624376428248e-06</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>10169.38095441108</v>
+        <v>7.483841675210189</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>3.966624376428248e-06</v>
+        <v>1.63020270619274</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.483841675210189</v>
+        <v>0.0002221622467509361</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.63020270619274</v>
+        <v>8.780336704959439</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0002221622467509361</v>
+        <v>0.9656174493444355</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>8.780336704959439</v>
+        <v>0.6482923195978399</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9656174493444355</v>
+        <v>695</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.6482923195978399</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>695</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>20.24649707878241</v>
       </c>
     </row>
@@ -7411,72 +7213,66 @@
         <v>1.481914814765974e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.08002219957167592</v>
+        <v>5.681279331027109e-09</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.99597996445809</v>
+        <v>2.492185818085842e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.681279331027109e-09</v>
+        <v>0.06390103953054045</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.492185818085842e-07</v>
+        <v>0.03027983483406039</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.06390103953054045</v>
+        <v>0.004998870728558266</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.03027983483406039</v>
+        <v>1.917989798623503</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.004998870728558266</v>
+        <v>4.026807697275659</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.956599405505023</v>
+        <v>8.275499869045568</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>4.026807697275659</v>
+        <v>7.588070160548998e-20</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>8.275499869045568</v>
+        <v>356896585982.5518</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>7.588070160548998e-20</v>
+        <v>3.359633500103484e-10</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>356896585982.5518</v>
+        <v>9665.31750088648</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.359633500103484e-10</v>
+        <v>3.680555615663599e-06</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>9665.31750088648</v>
+        <v>7.392676386460278</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>3.680555615663599e-06</v>
+        <v>1.617228078363609</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.392676386460278</v>
+        <v>0.0002011484894107791</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.617228078363609</v>
+        <v>8.778667793467399</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.0002011484894107791</v>
+        <v>0.9646022398576867</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>8.778667793467399</v>
+        <v>0.637755028871513</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9646022398576867</v>
+        <v>686</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.637755028871513</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>20.78443913043129</v>
       </c>
     </row>
@@ -7491,72 +7287,66 @@
         <v>1.462582891595183e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.03504471227599286</v>
+        <v>5.515647812973856e-09</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.070580521109088</v>
+        <v>2.493118591170457e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.515647812973856e-09</v>
+        <v>0.06285647004108616</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.493118591170457e-07</v>
+        <v>0.02843136541015644</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.06285647004108616</v>
+        <v>0.004758353161868179</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.02843136541015644</v>
+        <v>1.910884795473935</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.004758353161868179</v>
+        <v>4.358381223018776</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.955144625568978</v>
+        <v>8.28152873973236</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>4.358381223018776</v>
+        <v>7.577026102540657e-20</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>8.28152873973236</v>
+        <v>355990393538.1244</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>7.577026102540657e-20</v>
+        <v>3.371632876360274e-10</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>355990393538.1244</v>
+        <v>9602.30155481214</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.371632876360274e-10</v>
+        <v>3.641656483015018e-06</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>9602.30155481214</v>
+        <v>8.138000963564524</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>3.641656483015018e-06</v>
+        <v>1.534242493081049</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.138000963564524</v>
+        <v>0.0002411762012455361</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.534242493081049</v>
+        <v>8.782627011639089</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.0002411762012455361</v>
+        <v>0.9630778518604257</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>8.782627011639089</v>
+        <v>0.6297816927271058</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9630778518604257</v>
+        <v>673</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.6297816927271058</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>673</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>21.37266916175005</v>
       </c>
     </row>
@@ -7571,72 +7361,66 @@
         <v>1.446254625720838e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.001597896471138091</v>
+        <v>5.361438921640792e-09</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.140170504288134</v>
+        <v>2.494025089180386e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.361438921640792e-09</v>
+        <v>0.06178811397101652</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.494025089180386e-07</v>
+        <v>0.02713838909180009</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.06178811397101652</v>
+        <v>0.00455347019447847</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.02713838909180009</v>
+        <v>1.908049675382438</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.00455347019447847</v>
+        <v>4.638848246191329</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.957176531455834</v>
+        <v>8.223620108118116</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>4.638848246191329</v>
+        <v>7.68411278188276e-20</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>8.223620108118116</v>
+        <v>351559658918.7014</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>7.68411278188276e-20</v>
+        <v>3.406061255174959e-10</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>351559658918.7014</v>
+        <v>9497.117241839675</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.406061255174959e-10</v>
+        <v>3.778704117253521e-06</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>9497.117241839675</v>
+        <v>8.173412603139356</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>3.778704117253521e-06</v>
+        <v>1.533192942296296</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.173412603139356</v>
+        <v>0.0002524350951128965</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.533192942296296</v>
+        <v>8.797589659748706</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0002524350951128965</v>
+        <v>0.9639410510403641</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>8.797589659748706</v>
+        <v>0.6420345020962921</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9639410510403641</v>
+        <v>665</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.6420345020962921</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>665</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>21.34368478331597</v>
       </c>
     </row>
@@ -7651,72 +7435,66 @@
         <v>1.432275966846437e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.02907871716205377</v>
+        <v>5.194028106474539e-09</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.204965225870023</v>
+        <v>2.49490491656714e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.194028106474539e-09</v>
+        <v>0.06044291714921708</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.49490491656714e-07</v>
+        <v>0.02580450348197851</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.06044291714921708</v>
+        <v>0.004318360718391829</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.02580450348197851</v>
+        <v>1.907465463218958</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.004318360718391829</v>
+        <v>4.1310665491882</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.95776846899777</v>
+        <v>8.124821513688811</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>4.1310665491882</v>
+        <v>7.872128084950984e-20</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>8.124821513688811</v>
+        <v>349335161710.8309</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>7.872128084950984e-20</v>
+        <v>3.432892726259987e-10</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>349335161710.8309</v>
+        <v>9606.755854477593</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.432892726259987e-10</v>
+        <v>3.706149074697399e-06</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>9606.755854477593</v>
+        <v>7.783180532077595</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>3.706149074697399e-06</v>
+        <v>1.62947815917917</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.783180532077595</v>
+        <v>0.0002245107250483342</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.62947815917917</v>
+        <v>8.846036252282</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.0002245107250483342</v>
+        <v>0.9642316635922893</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>8.846036252282</v>
+        <v>0.6228414988465565</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9642316635922893</v>
+        <v>674</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.6228414988465565</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>674</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>20.73846940111186</v>
       </c>
     </row>
@@ -7731,72 +7509,66 @@
         <v>1.420377685461862e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.04586958434287163</v>
+        <v>5.018652972714751e-09</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.262932654628412</v>
+        <v>2.495755938766607e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.018652972714751e-09</v>
+        <v>0.05889086019266999</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.495755938766607e-07</v>
+        <v>0.02449779868557768</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.05889086019266999</v>
+        <v>0.004067496861881228</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.02449779868557768</v>
+        <v>1.907111140846909</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.004067496861881228</v>
+        <v>3.936926136021118</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.958263168188976</v>
+        <v>8.84272562666796</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>3.936926136021118</v>
+        <v>8.022186646911019e-20</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>8.84272562666796</v>
+        <v>347503817725.0854</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>8.022186646911019e-20</v>
+        <v>3.456589916189393e-10</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>347503817725.0854</v>
+        <v>9687.504618176978</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>3.456589916189393e-10</v>
+        <v>3.371303217316626e-06</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>9687.504618176978</v>
+        <v>7.261089927872999</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>3.371303217316626e-06</v>
+        <v>1.727357458236791</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.261089927872999</v>
+        <v>0.0001777466588730008</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.727357458236791</v>
+        <v>8.901725650414505</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.0001777466588730008</v>
+        <v>0.9641073081276152</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>8.901725650414505</v>
+        <v>0.6178384489804863</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9641073081276152</v>
+        <v>690</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.6178384489804863</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>690</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>20.28802406569449</v>
       </c>
     </row>
@@ -8173,7 +7945,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.320531240165131</v>
+        <v>1.327756594214868</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.129913098422735</v>
@@ -8262,7 +8034,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.332633162572707</v>
+        <v>1.339570233548015</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.089871386701938</v>
@@ -8351,7 +8123,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.356480948035043</v>
+        <v>1.360340485874652</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.105058548811937</v>
@@ -8440,7 +8212,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.387649032373501</v>
+        <v>1.395560475372197</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.375443559045824</v>
@@ -8529,7 +8301,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.41452428977821</v>
+        <v>1.41556721005617</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.233839948873052</v>
@@ -8618,7 +8390,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.401772128924953</v>
+        <v>1.403289489226044</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.342002151036287</v>
@@ -8707,7 +8479,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.385447408543849</v>
+        <v>1.389747483417911</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.36033192602518</v>
@@ -8796,7 +8568,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.387626713822539</v>
+        <v>1.39180067907575</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.367170384938273</v>
@@ -8885,7 +8657,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.389713428498933</v>
+        <v>1.39574088924001</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.336647949838211</v>
@@ -8974,7 +8746,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.389618760237601</v>
+        <v>1.397025822946117</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.234498195724489</v>
@@ -9063,7 +8835,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.392618885515741</v>
+        <v>1.394493289838804</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.326802768213311</v>
@@ -9152,7 +8924,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.400247098476293</v>
+        <v>1.409970079480296</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.461750394570471</v>
@@ -9241,7 +9013,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.364279142465501</v>
+        <v>1.373293920465684</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.394344701328031</v>
@@ -9330,7 +9102,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.36094000181632</v>
+        <v>1.365925726144933</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.301077747278254</v>
@@ -9419,7 +9191,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.365093079573129</v>
+        <v>1.372897258171625</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.350897065463383</v>
@@ -9508,7 +9280,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.389215481412912</v>
+        <v>1.395809919135809</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.322232567666097</v>
@@ -9597,7 +9369,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.37826107781827</v>
+        <v>1.383936495318872</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.333890150842537</v>
@@ -9686,7 +9458,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.372106654387946</v>
+        <v>1.369327736027068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.272843097164571</v>
@@ -9775,7 +9547,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.309666275868635</v>
+        <v>1.317373650311887</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.095121102317014</v>
@@ -9864,7 +9636,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.285755260599297</v>
+        <v>1.296473252172592</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.143425518871383</v>
@@ -9953,7 +9725,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.277729205824606</v>
+        <v>1.287674870106551</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.009344508060161</v>
@@ -10042,7 +9814,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.277598837972635</v>
+        <v>1.289944174052508</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.069643140531423</v>
@@ -10131,7 +9903,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.265830454565124</v>
+        <v>1.278011910952546</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.114919329727782</v>
@@ -10220,7 +9992,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.240438435369323</v>
+        <v>1.249821614704796</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.113820234877234</v>
@@ -10309,7 +10081,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.237439610969182</v>
+        <v>1.247040550656092</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.094849108705066</v>
@@ -10398,7 +10170,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.241678713261741</v>
+        <v>1.247036826693242</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.988861127527046</v>
@@ -10487,7 +10259,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.27927374163839</v>
+        <v>1.29175086606958</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.100628247161501</v>
@@ -10576,7 +10348,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.284543076555994</v>
+        <v>1.299152370063367</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.167613780528244</v>
@@ -10665,7 +10437,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.276551167366617</v>
+        <v>1.291531017194614</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.220541776369243</v>
@@ -10754,7 +10526,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.275761631970758</v>
+        <v>1.291022554309898</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.222619382247441</v>
@@ -10843,7 +10615,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.278040754058956</v>
+        <v>1.291995570079097</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.219840702992859</v>
@@ -10932,7 +10704,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.284178259515166</v>
+        <v>1.298015473114725</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.194074536705584</v>
@@ -11021,7 +10793,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.290372196592954</v>
+        <v>1.30417026951838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.980531985314529</v>
@@ -11110,7 +10882,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.297781312423955</v>
+        <v>1.312845566333913</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.061000622055245</v>
@@ -11199,7 +10971,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.298410001252929</v>
+        <v>1.312250212690707</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.164017924907586</v>
@@ -11288,7 +11060,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.304028899684753</v>
+        <v>1.321308016670058</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.162971709457217</v>
@@ -11377,7 +11149,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.301952035922997</v>
+        <v>1.320251264762399</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.19352250647224</v>
@@ -11466,7 +11238,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.309883698134621</v>
+        <v>1.327047247081016</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.194111450379732</v>
@@ -11555,7 +11327,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.340818335540903</v>
+        <v>1.360922117999655</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.314906200985763</v>
@@ -11644,7 +11416,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.356661096249013</v>
+        <v>1.375361308281211</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.283551505463856</v>
@@ -11733,7 +11505,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.381934073699489</v>
+        <v>1.400979130682392</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.39459497329584</v>
@@ -11822,7 +11594,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.347812136782369</v>
+        <v>1.36389802060376</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.209328514094218</v>
@@ -11911,7 +11683,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.365139177847968</v>
+        <v>1.382160311821848</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.165187520174394</v>
@@ -12000,7 +11772,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.365608645623032</v>
+        <v>1.38517467786165</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.214580290262006</v>
@@ -12089,7 +11861,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.380874110447495</v>
+        <v>1.397710235456106</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.228531971595751</v>
@@ -12178,7 +11950,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.368219842560134</v>
+        <v>1.387429871081653</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.186823918007064</v>
@@ -12267,7 +12039,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.358024200265325</v>
+        <v>1.382291753170196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.20823070367805</v>
@@ -12356,7 +12128,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.370352660747763</v>
+        <v>1.392977519543968</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.223531259742059</v>
@@ -12445,7 +12217,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.431195017790594</v>
+        <v>1.453477818812489</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.070137899087219</v>
@@ -12534,7 +12306,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494348720289166</v>
+        <v>1.511778876540194</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.043061080449525</v>
@@ -12623,7 +12395,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532744001972127</v>
+        <v>1.551147359034446</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.318493063694401</v>
@@ -12712,7 +12484,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.560690965694358</v>
+        <v>1.573536627151746</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.483037321327844</v>
@@ -12801,7 +12573,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.553878980043093</v>
+        <v>1.575064274796967</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.329133688918732</v>
@@ -12890,7 +12662,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.545565998866459</v>
+        <v>1.569397075788574</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.376063841056955</v>
@@ -12979,7 +12751,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.516363449593449</v>
+        <v>1.544205552109316</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.365325105875423</v>
@@ -13068,7 +12840,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.468666366414976</v>
+        <v>1.505242836496022</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.06547939282423</v>
@@ -13157,7 +12929,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.384745626585884</v>
+        <v>1.415746293948345</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.935645236169034</v>
@@ -13246,7 +13018,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.393401790153955</v>
+        <v>1.427560386555639</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.921479452718066</v>
@@ -13335,7 +13107,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.404218426880809</v>
+        <v>1.438068536844947</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.978061645494579</v>
@@ -13424,7 +13196,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.408139619815113</v>
+        <v>1.446941580860743</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.016734192294758</v>
@@ -13513,7 +13285,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.425029800784327</v>
+        <v>1.462608739758818</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.934351430365456</v>
@@ -13602,7 +13374,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.446896676474153</v>
+        <v>1.481889893539824</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.013815660035695</v>
@@ -13691,7 +13463,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.454280648600045</v>
+        <v>1.486891336245743</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.970384665596553</v>
@@ -13780,7 +13552,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.454965837820583</v>
+        <v>1.485327452238236</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.949410570029509</v>
@@ -13869,7 +13641,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.410674509916475</v>
+        <v>1.443859320853275</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.994011894397238</v>
@@ -13958,7 +13730,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.381135533511929</v>
+        <v>1.414439874127584</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.025670888966432</v>
@@ -14047,7 +13819,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.368497430514301</v>
+        <v>1.400526376939729</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.037376800051269</v>
@@ -14136,7 +13908,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.370188802160393</v>
+        <v>1.401837731646531</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.021257581605604</v>
@@ -14225,7 +13997,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.332584419409375</v>
+        <v>1.365963353129381</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.084974384741434</v>
@@ -14314,7 +14086,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.323997513238551</v>
+        <v>1.35518436360279</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.092446814313019</v>
@@ -14403,7 +14175,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.322007248958962</v>
+        <v>1.341434371707346</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.903785920991791</v>
@@ -14492,7 +14264,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.293273857700203</v>
+        <v>1.325775698802554</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.846720246557696</v>
@@ -14581,7 +14353,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.28464441907931</v>
+        <v>1.315147420861942</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.857612872544671</v>
@@ -14670,7 +14442,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.277354712403806</v>
+        <v>1.304943367132523</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.855117561450047</v>
@@ -14759,7 +14531,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.269677129491376</v>
+        <v>1.294362777682604</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.86249506787864</v>
@@ -14848,7 +14620,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.261483722790362</v>
+        <v>1.288321734856503</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.86125994477311</v>
@@ -14937,7 +14709,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.253574558797764</v>
+        <v>1.279848186306926</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.859590667419183</v>
@@ -15026,7 +14798,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.245059656868137</v>
+        <v>1.273583750232681</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.890431142988115</v>
@@ -15115,7 +14887,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.247537376846791</v>
+        <v>1.275054845762893</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.893912338776483</v>
@@ -15204,7 +14976,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.2590020991843</v>
+        <v>1.288028494649727</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.918000145729035</v>
@@ -15293,7 +15065,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.276639859532462</v>
+        <v>1.305780055612731</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.8994827183428</v>
@@ -15579,7 +15351,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.370153391522251</v>
+        <v>1.369611325907516</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.14805230353444</v>
@@ -15668,7 +15440,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.369471599715664</v>
+        <v>1.366243516240752</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.017263314575076</v>
@@ -15757,7 +15529,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380029033971186</v>
+        <v>1.378174196897632</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.174236393046228</v>
@@ -15846,7 +15618,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.398967252711327</v>
+        <v>1.395393321619731</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.147989999055314</v>
@@ -15935,7 +15707,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.412102567090522</v>
+        <v>1.400220709019026</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.206000750517687</v>
@@ -16024,7 +15796,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.441310941422545</v>
+        <v>1.429266954863345</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.068563942941571</v>
@@ -16113,7 +15885,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.446231596952696</v>
+        <v>1.432818445046463</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.059005839789549</v>
@@ -16202,7 +15974,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.44060014230293</v>
+        <v>1.432409308385934</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.166374630933864</v>
@@ -16291,7 +16063,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.440844671834724</v>
+        <v>1.433198391523866</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.089425192493156</v>
@@ -16380,7 +16152,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.395896360635239</v>
+        <v>1.390331430448196</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.910577855537247</v>
@@ -16469,7 +16241,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.401569750924212</v>
+        <v>1.396328053618443</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.971907292206394</v>
@@ -16558,7 +16330,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.400995639479519</v>
+        <v>1.395585249850118</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.958046354465077</v>
@@ -16647,7 +16419,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.412873188603046</v>
+        <v>1.40837784542839</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.993571119639053</v>
@@ -16736,7 +16508,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.448000273596803</v>
+        <v>1.438456394343781</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.922174392653884</v>
@@ -16825,7 +16597,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.455306057260982</v>
+        <v>1.449698481266428</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.929872705531095</v>
@@ -16914,7 +16686,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.446676363023751</v>
+        <v>1.440912249347802</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.894263275899533</v>
@@ -17003,7 +16775,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.456479880495328</v>
+        <v>1.453128594971292</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.912719070518427</v>
@@ -17092,7 +16864,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.446373528051939</v>
+        <v>1.443411739960022</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.908440422780807</v>
@@ -17181,7 +16953,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.434098441558864</v>
+        <v>1.430520038470064</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.938568221325424</v>
@@ -17270,7 +17042,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.430220857424144</v>
+        <v>1.427894044926076</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.902927855115911</v>
@@ -17359,7 +17131,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.375376518435267</v>
+        <v>1.377748560297743</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.952349399977192</v>
@@ -17448,7 +17220,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.372822161407871</v>
+        <v>1.370914033824516</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.960879553987945</v>
@@ -17537,7 +17309,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.34737228355502</v>
+        <v>1.343279843829705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.042317082289257</v>
@@ -17626,7 +17398,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.312240527919357</v>
+        <v>1.308212438168142</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.948967284350767</v>
@@ -17715,7 +17487,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.338646761083183</v>
+        <v>1.340063871687705</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.996910796379071</v>
@@ -17804,7 +17576,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.33413639725997</v>
+        <v>1.335127383668208</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.008704245787605</v>
@@ -17893,7 +17665,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.381225011032623</v>
+        <v>1.394125673988239</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.096742054477472</v>
@@ -17982,7 +17754,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.385598272184973</v>
+        <v>1.397671679212972</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.08428944998384</v>
@@ -18071,7 +17843,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.388270497361689</v>
+        <v>1.400280718841042</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.095745083900953</v>
@@ -18160,7 +17932,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.392713958012229</v>
+        <v>1.405164637223482</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.149963826947489</v>
@@ -18249,7 +18021,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.397960534898186</v>
+        <v>1.410557972370013</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.081108260833604</v>
@@ -18338,7 +18110,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.399287204233268</v>
+        <v>1.412740773571718</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.161623830125589</v>
@@ -18427,7 +18199,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.405857474781071</v>
+        <v>1.417235104495477</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.122375878761476</v>
@@ -18516,7 +18288,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.411725865813501</v>
+        <v>1.426317170441504</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.104336790355621</v>
@@ -18605,7 +18377,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.414105547555546</v>
+        <v>1.428368454118978</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.098651395652627</v>
@@ -18694,7 +18466,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.442927395972485</v>
+        <v>1.457841548654964</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.040699866648775</v>
@@ -18783,7 +18555,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456115002312085</v>
+        <v>1.474297000792</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.041364047105533</v>
@@ -18872,7 +18644,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.490554258757661</v>
+        <v>1.508157658713183</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.068440859721648</v>
@@ -18961,7 +18733,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.559626243971267</v>
+        <v>1.579700525157787</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.488117588983211</v>
@@ -19050,7 +18822,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.562596486869289</v>
+        <v>1.577639109438761</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.514847486191773</v>
@@ -19139,7 +18911,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.585620333310989</v>
+        <v>1.599275216903055</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.542472878638369</v>
@@ -19228,7 +19000,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.551396531321268</v>
+        <v>1.548591474356197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.758445871705019</v>
@@ -19317,7 +19089,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546255355606729</v>
+        <v>1.555297199428203</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.671961664178577</v>
@@ -19406,7 +19178,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.54888473836105</v>
+        <v>1.559607418882742</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.908617703807266</v>
@@ -19495,7 +19267,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.553663841155101</v>
+        <v>1.561688489554177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.605229167973795</v>
@@ -19584,7 +19356,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.538374528192586</v>
+        <v>1.550491940136155</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.868579469705069</v>
@@ -19673,7 +19445,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.543565857200172</v>
+        <v>1.552328228944106</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.922566915934549</v>
@@ -19762,7 +19534,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510161177729887</v>
+        <v>1.529270799232824</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.734399919156687</v>
@@ -19851,7 +19623,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.512799385841671</v>
+        <v>1.533968756838429</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.66662811667642</v>
@@ -19940,7 +19712,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.531305111026203</v>
+        <v>1.552102611224863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.829973273872155</v>
@@ -20029,7 +19801,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532044897160101</v>
+        <v>1.549655272354366</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.707860842213464</v>
@@ -20118,7 +19890,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.518729002942066</v>
+        <v>1.537250341478206</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.603754763446615</v>
@@ -20207,7 +19979,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.514878124572126</v>
+        <v>1.526801008489404</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.642417650179298</v>
@@ -20296,7 +20068,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.489433085394186</v>
+        <v>1.501530037202777</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.498135195847827</v>
@@ -20385,7 +20157,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.483823643012598</v>
+        <v>1.50176660509713</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.46099004365676</v>
@@ -20474,7 +20246,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.475912647883413</v>
+        <v>1.486944058168355</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.52603817341103</v>
@@ -20563,7 +20335,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.474168615255144</v>
+        <v>1.488177853718771</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.27128593520448</v>
@@ -20652,7 +20424,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.445706025274532</v>
+        <v>1.461320419822617</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.622436819700742</v>
@@ -20741,7 +20513,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.451871662951006</v>
+        <v>1.467021976219237</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.682362147170794</v>
@@ -20830,7 +20602,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.452596256339437</v>
+        <v>1.469011092368411</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.55851246210314</v>
@@ -20919,7 +20691,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.441039945410666</v>
+        <v>1.458111262173157</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.585033902026606</v>
@@ -21008,7 +20780,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.445238063060942</v>
+        <v>1.460350185405167</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.4532147237869</v>
@@ -21097,7 +20869,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.465777184782198</v>
+        <v>1.472378056645868</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.369617315467856</v>
@@ -21186,7 +20958,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.470291795137967</v>
+        <v>1.468803620626779</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.573473375059383</v>
@@ -21275,7 +21047,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.4570054222961</v>
+        <v>1.452879274037062</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.589424860704726</v>
@@ -21364,7 +21136,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.429390771902245</v>
+        <v>1.42865629391554</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.363158044564556</v>
@@ -21453,7 +21225,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.444833206510928</v>
+        <v>1.445015909848177</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.367771109857374</v>
@@ -21542,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.442363367435053</v>
+        <v>1.441482916860362</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.218658137839779</v>
@@ -21631,7 +21403,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.462386877248806</v>
+        <v>1.455323863228273</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.298772529609668</v>
@@ -21720,7 +21492,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.464798344477735</v>
+        <v>1.454370454778435</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.248148780165383</v>
@@ -21809,7 +21581,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.470624240953443</v>
+        <v>1.457583751799405</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.024329555610944</v>
@@ -21898,7 +21670,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.470929684525688</v>
+        <v>1.460864270746782</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.183317325340354</v>
@@ -21987,7 +21759,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.475354916777718</v>
+        <v>1.46844053572378</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.382979422252506</v>
@@ -22076,7 +21848,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.481131648842523</v>
+        <v>1.484813761479466</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.344021390083878</v>
@@ -22165,7 +21937,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.492125305382438</v>
+        <v>1.499062693057252</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.410721067440777</v>
@@ -22254,7 +22026,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.520127370885013</v>
+        <v>1.526747997834121</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.416345669456057</v>
@@ -22343,7 +22115,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.516844050559314</v>
+        <v>1.52128827937377</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.376300603679548</v>
@@ -22432,7 +22204,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.509993266319317</v>
+        <v>1.521523358994845</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.440831961643322</v>
@@ -22521,7 +22293,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.505190403882972</v>
+        <v>1.523421137730912</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.452194509841974</v>
@@ -22610,7 +22382,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.511284093153054</v>
+        <v>1.528414868288198</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.360336107694346</v>
@@ -22699,7 +22471,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.50051066534943</v>
+        <v>1.516615275766943</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.263592780738653</v>
@@ -22985,7 +22757,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.406811861048656</v>
+        <v>1.405773311965141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.565536212753184</v>
@@ -23074,7 +22846,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.402526371356199</v>
+        <v>1.405868070100428</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711320285160951</v>
@@ -23163,7 +22935,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.413169033359878</v>
+        <v>1.416041140748663</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.571275872711711</v>
@@ -23252,7 +23024,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.410579122892196</v>
+        <v>1.418134300396768</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.875732036620508</v>
@@ -23341,7 +23113,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.398116318715142</v>
+        <v>1.404332889687614</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.571192979758326</v>
@@ -23430,7 +23202,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.393597267757251</v>
+        <v>1.400028925900576</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.652322302557661</v>
@@ -23519,7 +23291,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.400655932787907</v>
+        <v>1.408820680185027</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.754359892064505</v>
@@ -23608,7 +23380,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.406249456620251</v>
+        <v>1.41279949390262</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.485027126073254</v>
@@ -23697,7 +23469,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.413404996664305</v>
+        <v>1.420602932093857</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.673478693749687</v>
@@ -23786,7 +23558,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.405955658258726</v>
+        <v>1.417502381728978</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.705139044721091</v>
@@ -23875,7 +23647,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.40685266434012</v>
+        <v>1.417284303882292</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.618835364723322</v>
@@ -23964,7 +23736,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.413822786869722</v>
+        <v>1.423397754667673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.402904565923925</v>
@@ -24053,7 +23825,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.412381304286908</v>
+        <v>1.419935060700462</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.767170041054036</v>
@@ -24142,7 +23914,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.413745482847729</v>
+        <v>1.419796134155026</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.765391137305105</v>
@@ -24231,7 +24003,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410815302902346</v>
+        <v>1.418996272548284</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.922658744890925</v>
@@ -24320,7 +24092,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.414971770462727</v>
+        <v>1.422162136002894</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.626013129830349</v>
@@ -24409,7 +24181,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.412407185151687</v>
+        <v>1.418882139538754</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.06533714049996</v>
@@ -24498,7 +24270,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.411169784743209</v>
+        <v>1.416285413977276</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.058567173037278</v>
@@ -24587,7 +24359,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.41713091544005</v>
+        <v>1.429007714712536</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.789777447091869</v>
@@ -24676,7 +24448,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.430266521704186</v>
+        <v>1.436989159181823</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.828355932910691</v>
@@ -24765,7 +24537,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.403900831264071</v>
+        <v>1.41832768651118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.138716628433626</v>
@@ -24854,7 +24626,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.382432105655327</v>
+        <v>1.395471134025785</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.181262421105777</v>
@@ -24943,7 +24715,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.366386943710195</v>
+        <v>1.379950494222234</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.408668247916425</v>
@@ -25032,7 +24804,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.3483197114099</v>
+        <v>1.362264281829249</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.332249969261027</v>
@@ -25121,7 +24893,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.349445783731514</v>
+        <v>1.362115617667088</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.205484228152379</v>
@@ -25210,7 +24982,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.361844537510163</v>
+        <v>1.374790440342652</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.329019755618785</v>
@@ -25299,7 +25071,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.416478803313149</v>
+        <v>1.441022228863493</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.113258094843406</v>
@@ -25388,7 +25160,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.383677533292079</v>
+        <v>1.409202468810763</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.078913884901211</v>
@@ -25477,7 +25249,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.377986375171445</v>
+        <v>1.402308163216505</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.164159002395546</v>
@@ -25566,7 +25338,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.379708604751592</v>
+        <v>1.400407094802224</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.206091221180346</v>
@@ -25655,7 +25427,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.381386807532353</v>
+        <v>1.401877036713524</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.168062869153703</v>
@@ -25744,7 +25516,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.381539068309573</v>
+        <v>1.399793749093605</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.130018259820794</v>
@@ -25833,7 +25605,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.378771093879489</v>
+        <v>1.398694973462912</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.123704896294745</v>
@@ -25922,7 +25694,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.380780889841872</v>
+        <v>1.397608559079855</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.227878219594355</v>
@@ -26011,7 +25783,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.388364881469365</v>
+        <v>1.403317036155217</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.081198858185248</v>
@@ -26100,7 +25872,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.418055450404683</v>
+        <v>1.429100736092552</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.146857548650343</v>
@@ -26189,7 +25961,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.433151095219826</v>
+        <v>1.444563521610172</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.232652589809898</v>
@@ -26278,7 +26050,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.44439396237495</v>
+        <v>1.454608182909277</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.150669870230624</v>
@@ -26367,7 +26139,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.469219088400061</v>
+        <v>1.480326325650366</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.132914235098117</v>
@@ -26456,7 +26228,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.465386313873847</v>
+        <v>1.473297896117764</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.173488641336613</v>
@@ -26545,7 +26317,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.464994362733313</v>
+        <v>1.470850548704877</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.11421255442567</v>
@@ -26634,7 +26406,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.454601093842734</v>
+        <v>1.450158220918821</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.998457992312446</v>
@@ -26723,7 +26495,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.466998433561267</v>
+        <v>1.457258265673307</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.020162127094616</v>
@@ -26812,7 +26584,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.470434507523254</v>
+        <v>1.464658144038781</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.888558531265959</v>
@@ -26901,7 +26673,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.475014679516405</v>
+        <v>1.470595956365452</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.145262627489499</v>
@@ -26990,7 +26762,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.475765483252687</v>
+        <v>1.474024598484475</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.777055129367253</v>
@@ -27079,7 +26851,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475850282476765</v>
+        <v>1.4772074264173</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.239401233963047</v>
@@ -27168,7 +26940,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.475696938062664</v>
+        <v>1.479711733515354</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.241932331171867</v>
@@ -27257,7 +27029,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.461414634651314</v>
+        <v>1.468038269023174</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.714567995198</v>
@@ -27346,7 +27118,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.460792704728889</v>
+        <v>1.46562346956116</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.69804579439845</v>
@@ -27435,7 +27207,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.437910865364973</v>
+        <v>1.447630734388774</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.587421276137563</v>
@@ -27524,7 +27296,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.433429270290598</v>
+        <v>1.446194260662833</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.384101678046161</v>
@@ -27613,7 +27385,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.43666503834281</v>
+        <v>1.450275200176469</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.689837574995682</v>
@@ -27702,7 +27474,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.434217798306515</v>
+        <v>1.448383885261093</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.693526970376588</v>
@@ -27791,7 +27563,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.431791542199476</v>
+        <v>1.450397996156723</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.470608284164438</v>
@@ -27880,7 +27652,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.439929968677859</v>
+        <v>1.467189782543133</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.620549098569019</v>
@@ -27969,7 +27741,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.426289500061504</v>
+        <v>1.454260533696374</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.621109677344176</v>
@@ -28058,7 +27830,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.438569630779267</v>
+        <v>1.465497819783244</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.4943799305947</v>
@@ -28147,7 +27919,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.439404532336642</v>
+        <v>1.4643556363901</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.626356392846237</v>
@@ -28236,7 +28008,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.447766054540507</v>
+        <v>1.473405846455552</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.498916967328898</v>
@@ -28325,7 +28097,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.446396466075401</v>
+        <v>1.474611270754505</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.626182177944623</v>
@@ -28414,7 +28186,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.452286287917299</v>
+        <v>1.481596122309541</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.684107636006559</v>
@@ -28503,7 +28275,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.454863287311656</v>
+        <v>1.478415335705064</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.565399534479098</v>
@@ -28592,7 +28364,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.464672710982431</v>
+        <v>1.48717509625293</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.729635526177818</v>
@@ -28681,7 +28453,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.460149344761426</v>
+        <v>1.484524070756937</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.458995412248548</v>
@@ -28770,7 +28542,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474273362244088</v>
+        <v>1.496616909225448</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.679143537141902</v>
@@ -28859,7 +28631,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.477303657519459</v>
+        <v>1.50245828069589</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.780637541814901</v>
@@ -28948,7 +28720,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.478021933929744</v>
+        <v>1.502442121156103</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.739578389507572</v>
@@ -29037,7 +28809,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.494812443123493</v>
+        <v>1.518258851048402</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.548457132977915</v>
@@ -29126,7 +28898,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.509121272446028</v>
+        <v>1.53138864637873</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.867519482892956</v>
@@ -29215,7 +28987,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.523188629183642</v>
+        <v>1.536068587414728</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.583633734585262</v>
@@ -29304,7 +29076,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.512966124781739</v>
+        <v>1.527004303894113</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.55453521037601</v>
@@ -29393,7 +29165,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.501823613781627</v>
+        <v>1.516470701741318</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.375358455050971</v>
@@ -29482,7 +29254,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.493480893582237</v>
+        <v>1.513600099401946</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.550054513443909</v>
@@ -29571,7 +29343,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.495739120967952</v>
+        <v>1.515067313313005</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.535657742940403</v>
@@ -29660,7 +29432,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.49601384348164</v>
+        <v>1.515388939494752</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.540534202986097</v>
@@ -29749,7 +29521,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.49631292180531</v>
+        <v>1.513419634617669</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.731152253995603</v>
@@ -29838,7 +29610,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.48812143737289</v>
+        <v>1.506438144444734</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.59043396096459</v>
@@ -29927,7 +29699,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.488346722567513</v>
+        <v>1.50796327066417</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.588580761729372</v>
@@ -30016,7 +29788,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.489051797895289</v>
+        <v>1.507391691614931</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.625005675228485</v>
@@ -30105,7 +29877,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.480434285688664</v>
+        <v>1.499155432490958</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.713304312343261</v>
@@ -30391,7 +30163,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.590217831508072</v>
+        <v>1.58527885875558</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.188913038939738</v>
@@ -30480,7 +30252,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.573625119330091</v>
+        <v>1.570906553727755</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.805247629143614</v>
@@ -30569,7 +30341,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.573627673865042</v>
+        <v>1.572114866891224</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.651517024307875</v>
@@ -30658,7 +30430,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579373004027091</v>
+        <v>1.577502087365142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.57662089138656</v>
@@ -30747,7 +30519,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58973792880365</v>
+        <v>1.582916725730683</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.039773930134496</v>
@@ -30836,7 +30608,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.585899745460881</v>
+        <v>1.576717078209837</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.838884588651525</v>
@@ -30925,7 +30697,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.576780333056329</v>
+        <v>1.56481834546185</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.905336779485116</v>
@@ -31014,7 +30786,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.575385767403988</v>
+        <v>1.56203281653215</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.784819158253931</v>
@@ -31103,7 +30875,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.578906517907515</v>
+        <v>1.564523246778784</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.672974095589015</v>
@@ -31192,7 +30964,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.574384001553132</v>
+        <v>1.55462823888455</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.793805505774712</v>
@@ -31281,7 +31053,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.56747047464984</v>
+        <v>1.545977078188607</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.940989574249631</v>
@@ -31370,7 +31142,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557498762793208</v>
+        <v>1.535895184075288</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.970739421888876</v>
@@ -31459,7 +31231,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553110247156985</v>
+        <v>1.531506379500096</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.94157074384325</v>
@@ -31548,7 +31320,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.546882775693984</v>
+        <v>1.523967337321269</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.573948764927121</v>
@@ -31637,7 +31409,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.540983354649619</v>
+        <v>1.520924642670403</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.584072721847985</v>
@@ -31726,7 +31498,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556804726456358</v>
+        <v>1.530397393330102</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.410396701344122</v>
@@ -31815,7 +31587,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.560567168681357</v>
+        <v>1.534138657389055</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.553406538208101</v>
@@ -31904,7 +31676,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.558615735335266</v>
+        <v>1.53189875178569</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.359856634228189</v>
@@ -31993,7 +31765,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.557047675195624</v>
+        <v>1.528006165748414</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.343880370510167</v>
@@ -32082,7 +31854,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.557512665221098</v>
+        <v>1.529124635252538</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.340997200354966</v>
@@ -32171,7 +31943,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.556309341124665</v>
+        <v>1.533403041530891</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.350064470426901</v>
@@ -32260,7 +32032,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544756987040643</v>
+        <v>1.52250695896357</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.515211858172458</v>
@@ -32349,7 +32121,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.550802647902247</v>
+        <v>1.532685349877231</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.366999071105194</v>
@@ -32438,7 +32210,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497975625992967</v>
+        <v>1.484857302128581</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.053520231718533</v>
@@ -32527,7 +32299,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.505434122780609</v>
+        <v>1.493761244355374</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.100124539509197</v>
@@ -32616,7 +32388,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.504252402548058</v>
+        <v>1.494925782603538</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.139065704733025</v>
@@ -32705,7 +32477,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.568708775779583</v>
+        <v>1.566760025093627</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.248991980754732</v>
@@ -32794,7 +32566,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.569652556421333</v>
+        <v>1.571941488609015</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.153520112528346</v>
@@ -32883,7 +32655,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566060575536993</v>
+        <v>1.571424898056937</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.260106252658987</v>
@@ -32972,7 +32744,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.570323347469722</v>
+        <v>1.577853214495972</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.295095386175963</v>
@@ -33061,7 +32833,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567781587820036</v>
+        <v>1.575669532479947</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.274512348464226</v>
@@ -33150,7 +32922,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.568956983050601</v>
+        <v>1.578512792284362</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.253126933428232</v>
@@ -33239,7 +33011,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569742221038657</v>
+        <v>1.577107895403848</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.222995516227854</v>
@@ -33328,7 +33100,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.570066707615819</v>
+        <v>1.576845367334095</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.274597425450698</v>
@@ -33417,7 +33189,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580855855353584</v>
+        <v>1.586551458713578</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.247288344189191</v>
@@ -33506,7 +33278,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.588377864195772</v>
+        <v>1.587431604332298</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.186535867503414</v>
@@ -33595,7 +33367,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587900950419295</v>
+        <v>1.587687242320116</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.266986033273881</v>
@@ -33684,7 +33456,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.59223746509294</v>
+        <v>1.587052371300815</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.201775470176834</v>
@@ -33773,7 +33545,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.654362464933085</v>
+        <v>1.63996354997899</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.5800164521631</v>
@@ -33862,7 +33634,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.643306461668474</v>
+        <v>1.631956328661154</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.496278686301953</v>
@@ -33951,7 +33723,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.654341464660167</v>
+        <v>1.641232385711965</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.715425599500149</v>
@@ -34040,7 +33812,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.602885206032111</v>
+        <v>1.584787959177989</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.539174699302069</v>
@@ -34129,7 +33901,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607644225521421</v>
+        <v>1.588359135313221</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.021973113522066</v>
@@ -34218,7 +33990,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62077866304425</v>
+        <v>1.599992597029087</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.796773003254279</v>
@@ -34307,7 +34079,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632685821739542</v>
+        <v>1.610216767576959</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.436502431342669</v>
@@ -34396,7 +34168,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.634790144502754</v>
+        <v>1.614227762555625</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.342713616596117</v>
@@ -34485,7 +34257,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632864031936244</v>
+        <v>1.610330152293031</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.525489181143245</v>
@@ -34574,7 +34346,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629675653717244</v>
+        <v>1.60732652323114</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.453082984864189</v>
@@ -34663,7 +34435,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.628527536679521</v>
+        <v>1.608918283077809</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.499018413316545</v>
@@ -34752,7 +34524,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612144194022055</v>
+        <v>1.594926912906809</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.516587590706996</v>
@@ -34841,7 +34613,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609627494450032</v>
+        <v>1.593697555523774</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.284158316779036</v>
@@ -34930,7 +34702,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609368587997127</v>
+        <v>1.587389673128064</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.438429319348428</v>
@@ -35019,7 +34791,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.602573730928954</v>
+        <v>1.587039841932827</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.52687178328596</v>
@@ -35108,7 +34880,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.604072310225355</v>
+        <v>1.594573176484673</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.214244280132515</v>
@@ -35197,7 +34969,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.614219062596121</v>
+        <v>1.607135991824173</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.420198612632968</v>
@@ -35286,7 +35058,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.623708551297373</v>
+        <v>1.61270112729631</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.232638117640406</v>
@@ -35375,7 +35147,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.610359512534326</v>
+        <v>1.596293059402167</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.201164202426116</v>
@@ -35464,7 +35236,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.623391111368498</v>
+        <v>1.609327185443419</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.90977199975562</v>
@@ -35553,7 +35325,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.627697869098712</v>
+        <v>1.606079722022188</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.38355218737545</v>
@@ -35642,7 +35414,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.631970453920273</v>
+        <v>1.613128076688857</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.200427262098025</v>
@@ -35731,7 +35503,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.637693827731009</v>
+        <v>1.615595797711252</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.138022380849431</v>
@@ -35820,7 +35592,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.64806182422248</v>
+        <v>1.619301732600073</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.220849345022003</v>
@@ -35909,7 +35681,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.651373200596824</v>
+        <v>1.62731568655055</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.374040859608269</v>
@@ -35998,7 +35770,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.663214816813886</v>
+        <v>1.63381475321585</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.988700837073565</v>
@@ -36087,7 +35859,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.666330510921634</v>
+        <v>1.632112142722813</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.259651238967631</v>
@@ -36176,7 +35948,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.672607870669256</v>
+        <v>1.637594267166957</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.375203940546673</v>
@@ -36265,7 +36037,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.687529831107942</v>
+        <v>1.653349766594745</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.549415893813876</v>
@@ -36354,7 +36126,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.69164390327625</v>
+        <v>1.652216900122186</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.60445016123598</v>
@@ -36443,7 +36215,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.686517331489482</v>
+        <v>1.640773230011793</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.112268317003752</v>
@@ -36532,7 +36304,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.684017780994509</v>
+        <v>1.63055968241793</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.526486104321573</v>
@@ -36621,7 +36393,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.676513251413911</v>
+        <v>1.622838067553228</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.290685669661579</v>
@@ -36710,7 +36482,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.669541324053642</v>
+        <v>1.618031595945436</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.652473458192449</v>
@@ -36799,7 +36571,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.642624411149369</v>
+        <v>1.595224204544895</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.929843797444685</v>
@@ -36888,7 +36660,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.668568492961928</v>
+        <v>1.632043025893322</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.467196194756217</v>
@@ -36977,7 +36749,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.676820305730733</v>
+        <v>1.642896701267418</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.665176248047059</v>
@@ -37066,7 +36838,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.670577766189512</v>
+        <v>1.635211962760143</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.703861245031055</v>
@@ -37155,7 +36927,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.671973646594745</v>
+        <v>1.64378701064351</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.480650638761799</v>
@@ -37244,7 +37016,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.677127260640918</v>
+        <v>1.646950897761809</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.640736695650629</v>
@@ -37333,7 +37105,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.672936794282228</v>
+        <v>1.646886621319361</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.518729028219325</v>
@@ -37422,7 +37194,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.679313106441928</v>
+        <v>1.65546834147795</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.597568410332763</v>
@@ -37511,7 +37283,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.667765990745629</v>
+        <v>1.650211115230054</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.706167550100661</v>
@@ -37797,7 +37569,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.451845168821423</v>
+        <v>1.451190096612959</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.276557840412349</v>
@@ -37886,7 +37658,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452236379863418</v>
+        <v>1.450806957350119</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.176255184364503</v>
@@ -37975,7 +37747,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.495133629424325</v>
+        <v>1.490639349742661</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.10788833632987</v>
@@ -38064,7 +37836,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.530598632811947</v>
+        <v>1.528522908694393</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.520422614411665</v>
@@ -38153,7 +37925,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.541725016012565</v>
+        <v>1.537872617648038</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.804373027061275</v>
@@ -38242,7 +38014,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.55323656642737</v>
+        <v>1.544144592933616</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.892260989036402</v>
@@ -38331,7 +38103,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.561859004612405</v>
+        <v>1.546936580445394</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.783227117642737</v>
@@ -38420,7 +38192,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.551999216858158</v>
+        <v>1.537309797821682</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.939414568566995</v>
@@ -38509,7 +38281,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.540502324946202</v>
+        <v>1.522486776765084</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.775353323929349</v>
@@ -38598,7 +38370,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.519470285589653</v>
+        <v>1.50186958508053</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.664940559729512</v>
@@ -38687,7 +38459,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.496595213781968</v>
+        <v>1.483512929276875</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.854607287044354</v>
@@ -38776,7 +38548,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.481012323897395</v>
+        <v>1.471797800382753</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.843733565159626</v>
@@ -38865,7 +38637,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.465435332536234</v>
+        <v>1.460014405287328</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.865150891634528</v>
@@ -38954,7 +38726,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.477557067771088</v>
+        <v>1.473346252838873</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.494756382672329</v>
@@ -39043,7 +38815,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481652096521643</v>
+        <v>1.472347695513116</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.863556778540897</v>
@@ -39132,7 +38904,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.474506765194258</v>
+        <v>1.45874943572371</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.544636939868385</v>
@@ -39221,7 +38993,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.475708336577776</v>
+        <v>1.461390177659986</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.93501241385985</v>
@@ -39310,7 +39082,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.463181702323906</v>
+        <v>1.449040643889902</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.007444757286566</v>
@@ -39399,7 +39171,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.440201652540871</v>
+        <v>1.42111965936654</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.918020344567346</v>
@@ -39488,7 +39260,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.418031143160048</v>
+        <v>1.396926539585168</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.320208170960069</v>
@@ -39577,7 +39349,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.3551718802847</v>
+        <v>1.349479632303703</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.931875286203073</v>
@@ -39666,7 +39438,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.342936117686682</v>
+        <v>1.33978660263328</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.850170114875474</v>
@@ -39755,7 +39527,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.313582866001509</v>
+        <v>1.315149670072691</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.943071404266264</v>
@@ -39844,7 +39616,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.305917602852748</v>
+        <v>1.30896265612501</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.935797320335219</v>
@@ -39933,7 +39705,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.313797158695899</v>
+        <v>1.319316677405462</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.942252565826758</v>
@@ -40022,7 +39794,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.313434089050582</v>
+        <v>1.318344286013794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.028322037446637</v>
@@ -40111,7 +39883,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.322335732086033</v>
+        <v>1.332598251342716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.888568000298061</v>
@@ -40200,7 +39972,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.278088401120285</v>
+        <v>1.289402772857086</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.914337429544426</v>
@@ -40289,7 +40061,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.248141539943367</v>
+        <v>1.253739664018374</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.965628412457355</v>
@@ -40378,7 +40150,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.234907410814199</v>
+        <v>1.243000135703864</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.969849731612645</v>
@@ -40467,7 +40239,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.236146707962085</v>
+        <v>1.247222010286169</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.990381825097868</v>
@@ -40556,7 +40328,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.235439118172536</v>
+        <v>1.247618626605185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.993457300390153</v>
@@ -40645,7 +40417,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.238802304009629</v>
+        <v>1.251569187969208</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.929443446145457</v>
@@ -40734,7 +40506,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.241517322981979</v>
+        <v>1.25602502558773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.988730289197386</v>
@@ -40823,7 +40595,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.248877000104908</v>
+        <v>1.263871467067653</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.963085289002529</v>
@@ -40912,7 +40684,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.258032593535856</v>
+        <v>1.273091028265463</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.916178225285539</v>
@@ -41001,7 +40773,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.261952133608196</v>
+        <v>1.276595862480734</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.945973813012362</v>
@@ -41090,7 +40862,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.283838907007223</v>
+        <v>1.29757250006576</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.945865131638071</v>
@@ -41179,7 +40951,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.283088636332469</v>
+        <v>1.298711597032044</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.92726805191114</v>
@@ -41268,7 +41040,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.280065279939939</v>
+        <v>1.292817555690712</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.892337406180467</v>
@@ -41357,7 +41129,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.290940592515686</v>
+        <v>1.302637891417857</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.821312829799669</v>
@@ -41446,7 +41218,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.313174943581283</v>
+        <v>1.309511758495331</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.909887384267162</v>
@@ -41535,7 +41307,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.360994661076591</v>
+        <v>1.358993461093049</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.770044628549123</v>
@@ -41624,7 +41396,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.430082983951716</v>
+        <v>1.423380367974317</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.925049963671981</v>
@@ -41713,7 +41485,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.45713980350359</v>
+        <v>1.449190638952397</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.711090825519456</v>
@@ -41802,7 +41574,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.45906267886418</v>
+        <v>1.450609793471618</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.516413708231645</v>
@@ -41891,7 +41663,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462102705957454</v>
+        <v>1.456547569656976</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.690673040758996</v>
@@ -41980,7 +41752,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.462389196161483</v>
+        <v>1.453838287553542</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.679745568844614</v>
@@ -42069,7 +41841,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.424184532768824</v>
+        <v>1.422092503733076</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.343356940358236</v>
@@ -42158,7 +41930,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.438666644988297</v>
+        <v>1.432830088393147</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.305240065444002</v>
@@ -42247,7 +42019,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.452693487622106</v>
+        <v>1.450339569517942</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.311031795423028</v>
@@ -42336,7 +42108,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.450115022901228</v>
+        <v>1.447996307125216</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.343402382754216</v>
@@ -42425,7 +42197,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.440163487829305</v>
+        <v>1.442107372195368</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.299635866856989</v>
@@ -42514,7 +42286,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.443295445801847</v>
+        <v>1.446018952226211</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.287614689351472</v>
@@ -42603,7 +42375,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.444457818569797</v>
+        <v>1.446845039823945</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.330301726471314</v>
@@ -42692,7 +42464,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.431521555403305</v>
+        <v>1.436300960323942</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.297933264916026</v>
@@ -42781,7 +42553,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.41056160334631</v>
+        <v>1.416867898532313</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.210223746877658</v>
@@ -42870,7 +42642,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.415421513062518</v>
+        <v>1.422983386794761</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.310369555518948</v>
@@ -42959,7 +42731,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.437285863118644</v>
+        <v>1.440156694109907</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.31934977407195</v>
@@ -43048,7 +42820,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.427949863986603</v>
+        <v>1.434152547679257</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.346506087725726</v>
@@ -43137,7 +42909,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.428806934776752</v>
+        <v>1.431653113296278</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.319626752004305</v>
@@ -43226,7 +42998,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.425541852723587</v>
+        <v>1.426297229165927</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.33196504584407</v>
@@ -43315,7 +43087,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.428206969456253</v>
+        <v>1.427012120699134</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.237135550472847</v>
@@ -43404,7 +43176,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.480977985529387</v>
+        <v>1.470647836165712</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.970055742305541</v>
@@ -43493,7 +43265,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.479577355775296</v>
+        <v>1.468236332729073</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.716621570015373</v>
@@ -43582,7 +43354,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.471298392606542</v>
+        <v>1.459376508632625</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.825769847287689</v>
@@ -43671,7 +43443,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.474307887576534</v>
+        <v>1.464093436750854</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.598701228199431</v>
@@ -43760,7 +43532,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.459057665799143</v>
+        <v>1.443722301831359</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.94239850338939</v>
@@ -43849,7 +43621,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.458636395808522</v>
+        <v>1.443179821071566</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.93411708153076</v>
@@ -43938,7 +43710,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.43859020922996</v>
+        <v>1.431519956775611</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.414206735934488</v>
@@ -44027,7 +43799,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.448360240686546</v>
+        <v>1.428811808052879</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.502973298823838</v>
@@ -44116,7 +43888,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.452906436191787</v>
+        <v>1.438107115364069</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.534880419389907</v>
@@ -44205,7 +43977,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.431806605064479</v>
+        <v>1.42438117957609</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.664093154923622</v>
@@ -44294,7 +44066,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.450374039515236</v>
+        <v>1.458201869386289</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.46373651605625</v>
@@ -44383,7 +44155,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.445524269173585</v>
+        <v>1.459954730908035</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.608383765361645</v>
@@ -44472,7 +44244,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.444053063068282</v>
+        <v>1.460091129786996</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.416030318162</v>
@@ -44561,7 +44333,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.435994146633892</v>
+        <v>1.457049838559402</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.601261242701933</v>
@@ -44650,7 +44422,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.400585029435327</v>
+        <v>1.42622073965687</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.571012598984895</v>
@@ -44739,7 +44511,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.389422420244543</v>
+        <v>1.415142251308597</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.536263868136934</v>
@@ -44828,7 +44600,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.386214789907759</v>
+        <v>1.41390387250408</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.574298806999352</v>
@@ -44917,7 +44689,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.382056204890495</v>
+        <v>1.409049955727103</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.483678992814369</v>
@@ -45203,7 +44975,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.229003883728701</v>
+        <v>1.235038619949985</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.880531668890024</v>
@@ -45292,7 +45064,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.220296320371753</v>
+        <v>1.222601078512337</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.88294777542323</v>
@@ -45381,7 +45153,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.218143722240199</v>
+        <v>1.221671522470935</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.927193008037094</v>
@@ -45470,7 +45242,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.22612427605023</v>
+        <v>1.229251759191127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.92711596130579</v>
@@ -45559,7 +45331,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.209471886006621</v>
+        <v>1.208113078234857</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.888942999800196</v>
@@ -45648,7 +45420,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.187872251341349</v>
+        <v>1.182808193049508</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.924750436439925</v>
@@ -45737,7 +45509,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.16680780009019</v>
+        <v>1.162796673148655</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.940877069052937</v>
@@ -45826,7 +45598,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.151557747653418</v>
+        <v>1.14721562539275</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.942055560305525</v>
@@ -45915,7 +45687,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.150413312500639</v>
+        <v>1.144147425370279</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.930804722730353</v>
@@ -46004,7 +45776,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.153219753028589</v>
+        <v>1.14871477667777</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.928027738238417</v>
@@ -46093,7 +45865,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.14794495632707</v>
+        <v>1.142919722213724</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.993532836166063</v>
@@ -46182,7 +45954,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.148716344126528</v>
+        <v>1.140187487023553</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.887476889252095</v>
@@ -46271,7 +46043,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.155883056345452</v>
+        <v>1.14972829016403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.997504935889324</v>
@@ -46360,7 +46132,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.156189086761192</v>
+        <v>1.152132862918651</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.791473229554456</v>
@@ -46449,7 +46221,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.164716017629046</v>
+        <v>1.160380366551014</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.122996501444057</v>
@@ -46538,7 +46310,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.166548217003254</v>
+        <v>1.161846099349647</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.108393551539856</v>
@@ -46627,7 +46399,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.163315084454596</v>
+        <v>1.157341229285419</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.148044157032513</v>
@@ -46716,7 +46488,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.154462209108197</v>
+        <v>1.147742809419843</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.155203750794552</v>
@@ -46805,7 +46577,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.13715069970902</v>
+        <v>1.132251509070562</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.956238033524676</v>
@@ -46894,7 +46666,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.140008269353729</v>
+        <v>1.136418098680065</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.139867995840271</v>
@@ -46983,7 +46755,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.156691287246072</v>
+        <v>1.151527010802577</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.858931728452434</v>
@@ -47072,7 +46844,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.14756519935774</v>
+        <v>1.139258261073588</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.761209956028219</v>
@@ -47161,7 +46933,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.143194203617382</v>
+        <v>1.142259636033802</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.801543078065923</v>
@@ -47250,7 +47022,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.136446622807596</v>
+        <v>1.133502545038248</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.833260795798764</v>
@@ -47339,7 +47111,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.144636372484583</v>
+        <v>1.141445736542654</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.811559407531439</v>
@@ -47428,7 +47200,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.142475315531198</v>
+        <v>1.140749997401371</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.805115204330942</v>
@@ -47517,7 +47289,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.197060471439008</v>
+        <v>1.204869954594522</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.877003271759671</v>
@@ -47606,7 +47378,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.197624735422019</v>
+        <v>1.205886741431909</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.84366851518251</v>
@@ -47695,7 +47467,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.198861766052864</v>
+        <v>1.208284869129561</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.899912825326472</v>
@@ -47784,7 +47556,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.202578195522856</v>
+        <v>1.211142153260587</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.940812697033909</v>
@@ -47873,7 +47645,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.209768031346792</v>
+        <v>1.218975920426552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.892372034570735</v>
@@ -47962,7 +47734,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.223534786797744</v>
+        <v>1.235656803753646</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.012019534822326</v>
@@ -48051,7 +47823,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.236850619411554</v>
+        <v>1.246105817356075</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.988798211697115</v>
@@ -48140,7 +47912,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.238912042482645</v>
+        <v>1.250163914619541</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.884519633239899</v>
@@ -48229,7 +48001,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.240921674452821</v>
+        <v>1.253896705879252</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.912990308819931</v>
@@ -48318,7 +48090,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.266054353631055</v>
+        <v>1.275598483103495</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.661474444949913</v>
@@ -48407,7 +48179,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.276474688509515</v>
+        <v>1.292552925505267</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.043209473108802</v>
@@ -48496,7 +48268,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.289073195541371</v>
+        <v>1.3031785607743</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.207788221027466</v>
@@ -48585,7 +48357,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.318429917915771</v>
+        <v>1.3367122705445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.331904701378571</v>
@@ -48674,7 +48446,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.319147913749381</v>
+        <v>1.335456297498776</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.124214587693418</v>
@@ -48763,7 +48535,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.33577196359708</v>
+        <v>1.351813041559097</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.35635811044837</v>
@@ -48852,7 +48624,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.273466800692648</v>
+        <v>1.278030389193221</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.177066285296198</v>
@@ -48941,7 +48713,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.297551712745655</v>
+        <v>1.305203570317747</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.118697555646626</v>
@@ -49030,7 +48802,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.300225942534579</v>
+        <v>1.309126215834137</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.185815927018253</v>
@@ -49119,7 +48891,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.306040026604108</v>
+        <v>1.306055971196827</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.216726125327069</v>
@@ -49208,7 +48980,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.280477697371614</v>
+        <v>1.276547682485935</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.130026544814198</v>
@@ -49297,7 +49069,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.258631722185481</v>
+        <v>1.24781844268135</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.164952302064907</v>
@@ -49386,7 +49158,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.2596880730269</v>
+        <v>1.252414124165592</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.166687170889441</v>
@@ -49475,7 +49247,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.26524007616798</v>
+        <v>1.258706673415591</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.042256627508573</v>
@@ -49564,7 +49336,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.241930556095491</v>
+        <v>1.235749422386053</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.061472615318986</v>
@@ -49653,7 +49425,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.237182355281259</v>
+        <v>1.219103130849823</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.158744465410304</v>
@@ -49742,7 +49514,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.233339192782671</v>
+        <v>1.208968347583858</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.119246269406591</v>
@@ -49831,7 +49603,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.210344512666161</v>
+        <v>1.195255177055461</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.109132255509113</v>
@@ -49920,7 +49692,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.199558522085792</v>
+        <v>1.177476204737902</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.133687915707431</v>
@@ -50009,7 +49781,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.186756247650166</v>
+        <v>1.164488418961107</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.221356063702767</v>
@@ -50098,7 +49870,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.190290327612249</v>
+        <v>1.166200802897672</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.21413841563094</v>
@@ -50187,7 +49959,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.181790118542995</v>
+        <v>1.157012460582245</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.228505878564202</v>
@@ -50276,7 +50048,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.170689765897585</v>
+        <v>1.145449586483139</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.15448983251673</v>
@@ -50365,7 +50137,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.164405471579841</v>
+        <v>1.139089467827212</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.1942919622476</v>
@@ -50454,7 +50226,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.167136918644422</v>
+        <v>1.146870458748829</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.137966763668147</v>
@@ -50543,7 +50315,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.179910920331418</v>
+        <v>1.162033675155854</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.188652308818529</v>
@@ -50632,7 +50404,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.183768770758139</v>
+        <v>1.167026390818859</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.082712756517515</v>
@@ -50721,7 +50493,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.187452554688941</v>
+        <v>1.171127385790801</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.024579778911716</v>
@@ -50810,7 +50582,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.200175302478387</v>
+        <v>1.183981880904979</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.978547978785103</v>
@@ -50899,7 +50671,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.213060390172717</v>
+        <v>1.192504966478291</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.054090987718417</v>
@@ -50988,7 +50760,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.210133952020966</v>
+        <v>1.201353774489675</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.85361981073849</v>
@@ -51077,7 +50849,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.219629725951084</v>
+        <v>1.218561798848514</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.999217612652075</v>
@@ -51166,7 +50938,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.243949327553623</v>
+        <v>1.243646141742113</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.524961479161218</v>
@@ -51255,7 +51027,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.253843084071493</v>
+        <v>1.261269437802031</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.269428663067298</v>
@@ -51344,7 +51116,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.253156782855356</v>
+        <v>1.260774231745985</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.537349533954282</v>
@@ -51433,7 +51205,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.235249204312389</v>
+        <v>1.241532037103831</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.133337368356455</v>
@@ -51522,7 +51294,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.227327066740763</v>
+        <v>1.240510443351794</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.120788201609598</v>
@@ -51611,7 +51383,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.241863422897572</v>
+        <v>1.253127310455171</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.022777855682614</v>
@@ -51700,7 +51472,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.303936460902507</v>
+        <v>1.3234660767074</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.192889298231977</v>
@@ -51789,7 +51561,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.297756263144965</v>
+        <v>1.315066807417649</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.257857786654606</v>
@@ -51878,7 +51650,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.298040028575437</v>
+        <v>1.319557999657477</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.206290215710279</v>
@@ -51967,7 +51739,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.298444210811854</v>
+        <v>1.321258403735744</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.199973327749407</v>
@@ -52056,7 +51828,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.298583122025842</v>
+        <v>1.322002144784687</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.217124818786582</v>
@@ -52145,7 +51917,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.294327773280927</v>
+        <v>1.316668064916892</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.270027856948919</v>
@@ -52234,7 +52006,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.313001636291822</v>
+        <v>1.339311917457245</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.118521909842793</v>
@@ -52323,7 +52095,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.334036586089254</v>
+        <v>1.361491831180994</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.207905372732919</v>
